--- a/TFC_zaiko.xlsx
+++ b/TFC_zaiko.xlsx
@@ -563,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M323"/>
+  <dimension ref="A1:N326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="H307" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J316" sqref="J316"/>
+      <selection pane="bottomRight" activeCell="N318" sqref="N318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,7 +591,7 @@
     <col min="14" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,8 +606,9 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -622,8 +623,9 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -647,8 +649,9 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -662,8 +665,9 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -677,8 +681,9 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -692,8 +697,9 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -707,8 +713,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -722,8 +729,9 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -737,8 +745,9 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -752,8 +761,9 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -767,8 +777,9 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -782,8 +793,9 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -797,8 +809,9 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -812,8 +825,9 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -827,8 +841,9 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -842,8 +857,9 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -857,8 +873,9 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -872,8 +889,9 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -887,8 +905,9 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -902,8 +921,9 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -917,8 +937,9 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -932,8 +953,9 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -947,8 +969,9 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -962,8 +985,9 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -977,8 +1001,9 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -992,8 +1017,9 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1007,8 +1033,9 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1022,8 +1049,9 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1037,8 +1065,9 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1052,8 +1081,9 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1067,8 +1097,9 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1082,8 +1113,9 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1097,8 +1129,9 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1112,8 +1145,9 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1127,8 +1161,9 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1142,8 +1177,9 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1157,8 +1193,9 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1172,8 +1209,9 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1187,8 +1225,9 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1202,8 +1241,9 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="13"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1217,8 +1257,9 @@
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="13"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1232,8 +1273,9 @@
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="13"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1247,8 +1289,9 @@
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1262,8 +1305,9 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1277,8 +1321,9 @@
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="13"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1292,8 +1337,9 @@
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="13"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1307,8 +1353,9 @@
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="13"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1322,8 +1369,9 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="13"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1337,8 +1385,9 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1352,8 +1401,9 @@
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="13"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1367,8 +1417,9 @@
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="13"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1382,8 +1433,9 @@
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="13"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1397,8 +1449,9 @@
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="13"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1412,8 +1465,9 @@
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="13"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1427,8 +1481,9 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="13"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1442,8 +1497,9 @@
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="13"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1457,8 +1513,9 @@
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
       <c r="M57" s="13"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1472,8 +1529,9 @@
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="13"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N58" s="13"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1487,8 +1545,9 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="13"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N59" s="13"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1502,8 +1561,9 @@
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="13"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N60" s="13"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1517,8 +1577,9 @@
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="13"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N61" s="13"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1532,8 +1593,9 @@
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="13"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N62" s="13"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1547,8 +1609,9 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="13"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N63" s="13"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1562,8 +1625,9 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="13"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N64" s="13"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -1577,8 +1641,9 @@
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="13"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N65" s="13"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1592,8 +1657,9 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="13"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N66" s="13"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1607,8 +1673,9 @@
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="13"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N67" s="13"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1622,8 +1689,9 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="13"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N68" s="13"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -1637,8 +1705,9 @@
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="13"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1652,8 +1721,9 @@
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="13"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N70" s="13"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -1667,8 +1737,9 @@
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="13"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N71" s="13"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1682,8 +1753,9 @@
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
       <c r="M72" s="13"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N72" s="13"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -1697,8 +1769,9 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="13"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N73" s="13"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1712,8 +1785,9 @@
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="13"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N74" s="13"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1727,8 +1801,9 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="13"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N75" s="13"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1742,8 +1817,9 @@
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="13"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N76" s="13"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1757,8 +1833,9 @@
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="13"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N77" s="13"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1772,8 +1849,9 @@
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
       <c r="M78" s="13"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N78" s="13"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -1787,8 +1865,9 @@
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="13"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N79" s="13"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1802,8 +1881,9 @@
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="13"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N80" s="13"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1817,8 +1897,9 @@
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
       <c r="M81" s="13"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N81" s="13"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -1832,8 +1913,9 @@
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="13"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N82" s="13"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -1847,8 +1929,9 @@
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="13"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N83" s="13"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -1862,8 +1945,9 @@
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
       <c r="M84" s="13"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N84" s="13"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -1877,8 +1961,9 @@
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
       <c r="M85" s="13"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N85" s="13"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -1892,8 +1977,9 @@
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
       <c r="M86" s="13"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N86" s="13"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -1907,8 +1993,9 @@
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
       <c r="M87" s="13"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N87" s="13"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1922,8 +2009,9 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="13"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N88" s="13"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -1937,8 +2025,9 @@
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
       <c r="M89" s="13"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N89" s="13"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -1952,8 +2041,9 @@
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
       <c r="M90" s="13"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N90" s="13"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -1967,8 +2057,9 @@
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
       <c r="M91" s="13"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N91" s="13"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -1982,8 +2073,9 @@
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
       <c r="M92" s="13"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N92" s="13"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -1997,8 +2089,9 @@
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
       <c r="M93" s="13"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N93" s="13"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -2012,8 +2105,9 @@
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
       <c r="M94" s="13"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N94" s="13"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -2027,8 +2121,9 @@
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
       <c r="M95" s="13"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N95" s="13"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -2042,8 +2137,9 @@
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
       <c r="M96" s="13"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N96" s="13"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -2057,8 +2153,9 @@
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
       <c r="M97" s="13"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N97" s="13"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -2072,8 +2169,9 @@
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
       <c r="M98" s="13"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N98" s="13"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -2087,8 +2185,9 @@
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
       <c r="M99" s="13"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N99" s="13"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -2102,8 +2201,9 @@
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
       <c r="M100" s="13"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N100" s="13"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -2117,8 +2217,9 @@
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
       <c r="M101" s="13"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N101" s="13"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -2132,8 +2233,9 @@
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
       <c r="M102" s="13"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N102" s="13"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -2147,8 +2249,9 @@
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
       <c r="M103" s="13"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N103" s="13"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -2162,8 +2265,9 @@
       <c r="K104" s="11"/>
       <c r="L104" s="11"/>
       <c r="M104" s="13"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N104" s="13"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -2177,8 +2281,9 @@
       <c r="K105" s="11"/>
       <c r="L105" s="11"/>
       <c r="M105" s="13"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N105" s="13"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -2192,8 +2297,9 @@
       <c r="K106" s="11"/>
       <c r="L106" s="11"/>
       <c r="M106" s="13"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N106" s="13"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -2207,8 +2313,9 @@
       <c r="K107" s="11"/>
       <c r="L107" s="11"/>
       <c r="M107" s="13"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N107" s="13"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -2222,8 +2329,9 @@
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
       <c r="M108" s="13"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N108" s="13"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -2237,8 +2345,9 @@
       <c r="K109" s="11"/>
       <c r="L109" s="11"/>
       <c r="M109" s="13"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N109" s="13"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -2252,8 +2361,9 @@
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
       <c r="M110" s="13"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N110" s="13"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -2267,8 +2377,9 @@
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
       <c r="M111" s="13"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N111" s="13"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -2282,8 +2393,9 @@
       <c r="K112" s="11"/>
       <c r="L112" s="11"/>
       <c r="M112" s="13"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N112" s="13"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -2297,8 +2409,9 @@
       <c r="K113" s="11"/>
       <c r="L113" s="11"/>
       <c r="M113" s="13"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N113" s="13"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -2312,8 +2425,9 @@
       <c r="K114" s="11"/>
       <c r="L114" s="11"/>
       <c r="M114" s="13"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -2327,8 +2441,9 @@
       <c r="K115" s="11"/>
       <c r="L115" s="11"/>
       <c r="M115" s="13"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -2342,8 +2457,9 @@
       <c r="K116" s="11"/>
       <c r="L116" s="11"/>
       <c r="M116" s="13"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -2357,8 +2473,9 @@
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
       <c r="M117" s="13"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N117" s="13"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -2372,8 +2489,9 @@
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
       <c r="M118" s="13"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N118" s="13"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -2387,8 +2505,9 @@
       <c r="K119" s="11"/>
       <c r="L119" s="11"/>
       <c r="M119" s="13"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N119" s="13"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -2402,8 +2521,9 @@
       <c r="K120" s="11"/>
       <c r="L120" s="11"/>
       <c r="M120" s="13"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N120" s="13"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -2417,8 +2537,9 @@
       <c r="K121" s="11"/>
       <c r="L121" s="11"/>
       <c r="M121" s="13"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N121" s="13"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -2432,8 +2553,9 @@
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
       <c r="M122" s="13"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N122" s="13"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -2447,8 +2569,9 @@
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
       <c r="M123" s="13"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N123" s="13"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -2462,8 +2585,9 @@
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
       <c r="M124" s="13"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N124" s="13"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -2477,8 +2601,9 @@
       <c r="K125" s="11"/>
       <c r="L125" s="11"/>
       <c r="M125" s="13"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N125" s="13"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -2492,8 +2617,9 @@
       <c r="K126" s="11"/>
       <c r="L126" s="11"/>
       <c r="M126" s="13"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N126" s="13"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -2507,8 +2633,9 @@
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
       <c r="M127" s="13"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N127" s="13"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -2522,8 +2649,9 @@
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
       <c r="M128" s="13"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N128" s="13"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -2537,8 +2665,9 @@
       <c r="K129" s="11"/>
       <c r="L129" s="11"/>
       <c r="M129" s="13"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N129" s="13"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -2552,8 +2681,9 @@
       <c r="K130" s="11"/>
       <c r="L130" s="11"/>
       <c r="M130" s="13"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N130" s="13"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -2567,8 +2697,9 @@
       <c r="K131" s="11"/>
       <c r="L131" s="11"/>
       <c r="M131" s="13"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N131" s="13"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -2582,8 +2713,9 @@
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
       <c r="M132" s="13"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N132" s="13"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -2597,8 +2729,9 @@
       <c r="K133" s="11"/>
       <c r="L133" s="11"/>
       <c r="M133" s="13"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N133" s="13"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -2612,8 +2745,9 @@
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
       <c r="M134" s="13"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N134" s="13"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -2627,8 +2761,9 @@
       <c r="K135" s="11"/>
       <c r="L135" s="11"/>
       <c r="M135" s="13"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N135" s="13"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -2642,8 +2777,9 @@
       <c r="K136" s="11"/>
       <c r="L136" s="11"/>
       <c r="M136" s="13"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N136" s="13"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -2657,8 +2793,9 @@
       <c r="K137" s="11"/>
       <c r="L137" s="11"/>
       <c r="M137" s="13"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N137" s="13"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -2672,8 +2809,9 @@
       <c r="K138" s="11"/>
       <c r="L138" s="11"/>
       <c r="M138" s="13"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N138" s="13"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -2687,8 +2825,9 @@
       <c r="K139" s="11"/>
       <c r="L139" s="11"/>
       <c r="M139" s="13"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N139" s="13"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -2702,8 +2841,9 @@
       <c r="K140" s="11"/>
       <c r="L140" s="11"/>
       <c r="M140" s="13"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N140" s="13"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -2717,8 +2857,9 @@
       <c r="K141" s="11"/>
       <c r="L141" s="11"/>
       <c r="M141" s="13"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N141" s="13"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -2732,8 +2873,9 @@
       <c r="K142" s="11"/>
       <c r="L142" s="11"/>
       <c r="M142" s="13"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N142" s="13"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -2747,8 +2889,9 @@
       <c r="K143" s="11"/>
       <c r="L143" s="11"/>
       <c r="M143" s="13"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N143" s="13"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -2762,8 +2905,9 @@
       <c r="K144" s="11"/>
       <c r="L144" s="11"/>
       <c r="M144" s="13"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N144" s="13"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -2777,8 +2921,9 @@
       <c r="K145" s="11"/>
       <c r="L145" s="11"/>
       <c r="M145" s="13"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N145" s="13"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -2792,8 +2937,9 @@
       <c r="K146" s="11"/>
       <c r="L146" s="11"/>
       <c r="M146" s="13"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N146" s="13"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -2807,8 +2953,9 @@
       <c r="K147" s="11"/>
       <c r="L147" s="11"/>
       <c r="M147" s="13"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N147" s="13"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -2822,8 +2969,9 @@
       <c r="K148" s="11"/>
       <c r="L148" s="11"/>
       <c r="M148" s="13"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N148" s="13"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -2837,8 +2985,9 @@
       <c r="K149" s="11"/>
       <c r="L149" s="11"/>
       <c r="M149" s="13"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N149" s="13"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -2852,8 +3001,9 @@
       <c r="K150" s="11"/>
       <c r="L150" s="11"/>
       <c r="M150" s="13"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N150" s="13"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -2867,8 +3017,9 @@
       <c r="K151" s="11"/>
       <c r="L151" s="11"/>
       <c r="M151" s="13"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N151" s="13"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -2882,8 +3033,9 @@
       <c r="K152" s="11"/>
       <c r="L152" s="11"/>
       <c r="M152" s="13"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N152" s="13"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -2897,8 +3049,9 @@
       <c r="K153" s="11"/>
       <c r="L153" s="11"/>
       <c r="M153" s="13"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N153" s="13"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -2912,8 +3065,9 @@
       <c r="K154" s="11"/>
       <c r="L154" s="11"/>
       <c r="M154" s="13"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N154" s="13"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -2927,8 +3081,9 @@
       <c r="K155" s="11"/>
       <c r="L155" s="11"/>
       <c r="M155" s="13"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N155" s="13"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -2942,8 +3097,9 @@
       <c r="K156" s="11"/>
       <c r="L156" s="11"/>
       <c r="M156" s="13"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N156" s="13"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -2957,8 +3113,9 @@
       <c r="K157" s="11"/>
       <c r="L157" s="11"/>
       <c r="M157" s="13"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N157" s="13"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -2972,8 +3129,9 @@
       <c r="K158" s="11"/>
       <c r="L158" s="11"/>
       <c r="M158" s="13"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N158" s="13"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -2987,8 +3145,9 @@
       <c r="K159" s="11"/>
       <c r="L159" s="11"/>
       <c r="M159" s="13"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N159" s="13"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -3002,8 +3161,9 @@
       <c r="K160" s="11"/>
       <c r="L160" s="11"/>
       <c r="M160" s="13"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N160" s="13"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -3017,8 +3177,9 @@
       <c r="K161" s="11"/>
       <c r="L161" s="11"/>
       <c r="M161" s="13"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N161" s="13"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -3032,8 +3193,9 @@
       <c r="K162" s="11"/>
       <c r="L162" s="11"/>
       <c r="M162" s="13"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N162" s="13"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -3047,8 +3209,9 @@
       <c r="K163" s="11"/>
       <c r="L163" s="11"/>
       <c r="M163" s="13"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N163" s="13"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -3062,8 +3225,9 @@
       <c r="K164" s="11"/>
       <c r="L164" s="11"/>
       <c r="M164" s="13"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N164" s="13"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -3077,8 +3241,9 @@
       <c r="K165" s="11"/>
       <c r="L165" s="11"/>
       <c r="M165" s="13"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N165" s="13"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -3092,8 +3257,9 @@
       <c r="K166" s="11"/>
       <c r="L166" s="11"/>
       <c r="M166" s="13"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N166" s="13"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -3107,8 +3273,9 @@
       <c r="K167" s="11"/>
       <c r="L167" s="11"/>
       <c r="M167" s="13"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N167" s="13"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -3122,8 +3289,9 @@
       <c r="K168" s="11"/>
       <c r="L168" s="11"/>
       <c r="M168" s="13"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N168" s="13"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -3137,8 +3305,9 @@
       <c r="K169" s="11"/>
       <c r="L169" s="11"/>
       <c r="M169" s="13"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N169" s="13"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -3152,8 +3321,9 @@
       <c r="K170" s="11"/>
       <c r="L170" s="11"/>
       <c r="M170" s="13"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N170" s="13"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -3167,8 +3337,9 @@
       <c r="K171" s="11"/>
       <c r="L171" s="11"/>
       <c r="M171" s="13"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N171" s="13"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -3182,8 +3353,9 @@
       <c r="K172" s="11"/>
       <c r="L172" s="11"/>
       <c r="M172" s="13"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N172" s="13"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -3197,8 +3369,9 @@
       <c r="K173" s="11"/>
       <c r="L173" s="11"/>
       <c r="M173" s="13"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N173" s="13"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -3212,8 +3385,9 @@
       <c r="K174" s="11"/>
       <c r="L174" s="11"/>
       <c r="M174" s="13"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N174" s="13"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -3227,8 +3401,9 @@
       <c r="K175" s="11"/>
       <c r="L175" s="11"/>
       <c r="M175" s="13"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N175" s="13"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -3242,8 +3417,9 @@
       <c r="K176" s="11"/>
       <c r="L176" s="11"/>
       <c r="M176" s="13"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N176" s="13"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -3257,8 +3433,9 @@
       <c r="K177" s="11"/>
       <c r="L177" s="11"/>
       <c r="M177" s="13"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N177" s="13"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -3272,8 +3449,9 @@
       <c r="K178" s="11"/>
       <c r="L178" s="11"/>
       <c r="M178" s="13"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N178" s="13"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -3287,8 +3465,9 @@
       <c r="K179" s="11"/>
       <c r="L179" s="11"/>
       <c r="M179" s="13"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N179" s="13"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -3302,8 +3481,9 @@
       <c r="K180" s="11"/>
       <c r="L180" s="11"/>
       <c r="M180" s="13"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N180" s="13"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -3317,8 +3497,9 @@
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
       <c r="M181" s="13"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N181" s="13"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -3332,8 +3513,9 @@
       <c r="K182" s="11"/>
       <c r="L182" s="11"/>
       <c r="M182" s="13"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N182" s="13"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -3347,8 +3529,9 @@
       <c r="K183" s="11"/>
       <c r="L183" s="11"/>
       <c r="M183" s="13"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N183" s="13"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -3362,8 +3545,9 @@
       <c r="K184" s="11"/>
       <c r="L184" s="11"/>
       <c r="M184" s="13"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N184" s="13"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -3377,8 +3561,9 @@
       <c r="K185" s="11"/>
       <c r="L185" s="11"/>
       <c r="M185" s="13"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N185" s="13"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -3392,8 +3577,9 @@
       <c r="K186" s="11"/>
       <c r="L186" s="11"/>
       <c r="M186" s="13"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N186" s="13"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -3407,8 +3593,9 @@
       <c r="K187" s="11"/>
       <c r="L187" s="11"/>
       <c r="M187" s="13"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N187" s="13"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -3422,8 +3609,9 @@
       <c r="K188" s="11"/>
       <c r="L188" s="11"/>
       <c r="M188" s="13"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N188" s="13"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -3437,8 +3625,9 @@
       <c r="K189" s="11"/>
       <c r="L189" s="11"/>
       <c r="M189" s="13"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N189" s="13"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -3452,8 +3641,9 @@
       <c r="K190" s="11"/>
       <c r="L190" s="11"/>
       <c r="M190" s="13"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N190" s="13"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -3467,8 +3657,9 @@
       <c r="K191" s="11"/>
       <c r="L191" s="11"/>
       <c r="M191" s="13"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N191" s="13"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -3482,8 +3673,9 @@
       <c r="K192" s="11"/>
       <c r="L192" s="11"/>
       <c r="M192" s="13"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N192" s="13"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -3497,8 +3689,9 @@
       <c r="K193" s="11"/>
       <c r="L193" s="11"/>
       <c r="M193" s="13"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N193" s="13"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -3512,8 +3705,9 @@
       <c r="K194" s="11"/>
       <c r="L194" s="11"/>
       <c r="M194" s="13"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N194" s="13"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -3527,8 +3721,9 @@
       <c r="K195" s="11"/>
       <c r="L195" s="11"/>
       <c r="M195" s="13"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N195" s="13"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -3542,8 +3737,9 @@
       <c r="K196" s="11"/>
       <c r="L196" s="11"/>
       <c r="M196" s="13"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N196" s="13"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -3557,8 +3753,9 @@
       <c r="K197" s="11"/>
       <c r="L197" s="11"/>
       <c r="M197" s="13"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N197" s="13"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -3572,8 +3769,9 @@
       <c r="K198" s="11"/>
       <c r="L198" s="11"/>
       <c r="M198" s="13"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N198" s="13"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -3587,8 +3785,9 @@
       <c r="K199" s="11"/>
       <c r="L199" s="11"/>
       <c r="M199" s="13"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N199" s="13"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -3602,8 +3801,9 @@
       <c r="K200" s="11"/>
       <c r="L200" s="11"/>
       <c r="M200" s="13"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N200" s="13"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -3617,8 +3817,9 @@
       <c r="K201" s="11"/>
       <c r="L201" s="11"/>
       <c r="M201" s="13"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N201" s="13"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -3632,8 +3833,9 @@
       <c r="K202" s="11"/>
       <c r="L202" s="11"/>
       <c r="M202" s="13"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N202" s="13"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -3647,8 +3849,9 @@
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
       <c r="M203" s="13"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N203" s="13"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -3662,8 +3865,9 @@
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
       <c r="M204" s="13"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N204" s="13"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -3677,8 +3881,9 @@
       <c r="K205" s="11"/>
       <c r="L205" s="11"/>
       <c r="M205" s="13"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N205" s="13"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -3692,8 +3897,9 @@
       <c r="K206" s="11"/>
       <c r="L206" s="11"/>
       <c r="M206" s="13"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N206" s="13"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -3707,8 +3913,9 @@
       <c r="K207" s="11"/>
       <c r="L207" s="11"/>
       <c r="M207" s="13"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N207" s="13"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -3722,8 +3929,9 @@
       <c r="K208" s="11"/>
       <c r="L208" s="11"/>
       <c r="M208" s="13"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N208" s="13"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -3737,8 +3945,9 @@
       <c r="K209" s="11"/>
       <c r="L209" s="11"/>
       <c r="M209" s="13"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N209" s="13"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -3752,8 +3961,9 @@
       <c r="K210" s="11"/>
       <c r="L210" s="11"/>
       <c r="M210" s="13"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N210" s="13"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -3767,8 +3977,9 @@
       <c r="K211" s="11"/>
       <c r="L211" s="11"/>
       <c r="M211" s="13"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N211" s="13"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -3782,8 +3993,9 @@
       <c r="K212" s="11"/>
       <c r="L212" s="11"/>
       <c r="M212" s="13"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N212" s="13"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -3797,8 +4009,9 @@
       <c r="K213" s="11"/>
       <c r="L213" s="11"/>
       <c r="M213" s="13"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N213" s="13"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -3812,8 +4025,9 @@
       <c r="K214" s="11"/>
       <c r="L214" s="11"/>
       <c r="M214" s="13"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N214" s="13"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -3827,8 +4041,9 @@
       <c r="K215" s="11"/>
       <c r="L215" s="11"/>
       <c r="M215" s="13"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N215" s="13"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -3842,8 +4057,9 @@
       <c r="K216" s="11"/>
       <c r="L216" s="11"/>
       <c r="M216" s="13"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N216" s="13"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -3857,8 +4073,9 @@
       <c r="K217" s="11"/>
       <c r="L217" s="11"/>
       <c r="M217" s="13"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N217" s="13"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -3872,8 +4089,9 @@
       <c r="K218" s="11"/>
       <c r="L218" s="11"/>
       <c r="M218" s="13"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N218" s="13"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -3887,8 +4105,9 @@
       <c r="K219" s="11"/>
       <c r="L219" s="11"/>
       <c r="M219" s="13"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N219" s="13"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -3902,8 +4121,9 @@
       <c r="K220" s="11"/>
       <c r="L220" s="11"/>
       <c r="M220" s="13"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N220" s="13"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -3917,8 +4137,9 @@
       <c r="K221" s="11"/>
       <c r="L221" s="11"/>
       <c r="M221" s="13"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N221" s="13"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -3932,8 +4153,9 @@
       <c r="K222" s="11"/>
       <c r="L222" s="11"/>
       <c r="M222" s="13"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N222" s="13"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -3947,8 +4169,9 @@
       <c r="K223" s="11"/>
       <c r="L223" s="11"/>
       <c r="M223" s="13"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N223" s="13"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -3962,8 +4185,9 @@
       <c r="K224" s="11"/>
       <c r="L224" s="11"/>
       <c r="M224" s="13"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N224" s="13"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -3977,8 +4201,9 @@
       <c r="K225" s="11"/>
       <c r="L225" s="11"/>
       <c r="M225" s="13"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N225" s="13"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -3992,8 +4217,9 @@
       <c r="K226" s="11"/>
       <c r="L226" s="11"/>
       <c r="M226" s="13"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N226" s="13"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -4007,8 +4233,9 @@
       <c r="K227" s="11"/>
       <c r="L227" s="11"/>
       <c r="M227" s="13"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N227" s="13"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -4022,8 +4249,9 @@
       <c r="K228" s="11"/>
       <c r="L228" s="11"/>
       <c r="M228" s="13"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N228" s="13"/>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -4037,8 +4265,9 @@
       <c r="K229" s="11"/>
       <c r="L229" s="11"/>
       <c r="M229" s="13"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N229" s="13"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -4052,8 +4281,9 @@
       <c r="K230" s="11"/>
       <c r="L230" s="11"/>
       <c r="M230" s="13"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N230" s="13"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -4067,8 +4297,9 @@
       <c r="K231" s="11"/>
       <c r="L231" s="11"/>
       <c r="M231" s="13"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N231" s="13"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -4082,8 +4313,9 @@
       <c r="K232" s="11"/>
       <c r="L232" s="11"/>
       <c r="M232" s="13"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N232" s="13"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
@@ -4097,8 +4329,9 @@
       <c r="K233" s="11"/>
       <c r="L233" s="11"/>
       <c r="M233" s="13"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N233" s="13"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -4112,8 +4345,9 @@
       <c r="K234" s="11"/>
       <c r="L234" s="11"/>
       <c r="M234" s="13"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N234" s="13"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -4127,8 +4361,9 @@
       <c r="K235" s="11"/>
       <c r="L235" s="11"/>
       <c r="M235" s="13"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N235" s="13"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -4142,8 +4377,9 @@
       <c r="K236" s="11"/>
       <c r="L236" s="11"/>
       <c r="M236" s="13"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N236" s="13"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -4157,8 +4393,9 @@
       <c r="K237" s="11"/>
       <c r="L237" s="11"/>
       <c r="M237" s="13"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N237" s="13"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -4172,8 +4409,9 @@
       <c r="K238" s="11"/>
       <c r="L238" s="11"/>
       <c r="M238" s="13"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N238" s="13"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -4187,8 +4425,9 @@
       <c r="K239" s="11"/>
       <c r="L239" s="11"/>
       <c r="M239" s="13"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N239" s="13"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -4202,8 +4441,9 @@
       <c r="K240" s="11"/>
       <c r="L240" s="11"/>
       <c r="M240" s="13"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N240" s="13"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -4217,8 +4457,9 @@
       <c r="K241" s="11"/>
       <c r="L241" s="11"/>
       <c r="M241" s="13"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N241" s="13"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -4232,8 +4473,9 @@
       <c r="K242" s="11"/>
       <c r="L242" s="11"/>
       <c r="M242" s="13"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N242" s="13"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
@@ -4247,8 +4489,9 @@
       <c r="K243" s="11"/>
       <c r="L243" s="11"/>
       <c r="M243" s="13"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N243" s="13"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -4262,8 +4505,9 @@
       <c r="K244" s="11"/>
       <c r="L244" s="11"/>
       <c r="M244" s="13"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N244" s="13"/>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
@@ -4277,8 +4521,9 @@
       <c r="K245" s="11"/>
       <c r="L245" s="11"/>
       <c r="M245" s="13"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N245" s="13"/>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
@@ -4292,8 +4537,9 @@
       <c r="K246" s="11"/>
       <c r="L246" s="11"/>
       <c r="M246" s="13"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N246" s="13"/>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -4307,8 +4553,9 @@
       <c r="K247" s="11"/>
       <c r="L247" s="11"/>
       <c r="M247" s="13"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N247" s="13"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
@@ -4322,8 +4569,9 @@
       <c r="K248" s="11"/>
       <c r="L248" s="11"/>
       <c r="M248" s="13"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N248" s="13"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A249" s="11"/>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
@@ -4337,8 +4585,9 @@
       <c r="K249" s="11"/>
       <c r="L249" s="11"/>
       <c r="M249" s="13"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N249" s="13"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
@@ -4352,8 +4601,9 @@
       <c r="K250" s="11"/>
       <c r="L250" s="11"/>
       <c r="M250" s="13"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N250" s="13"/>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -4367,8 +4617,9 @@
       <c r="K251" s="11"/>
       <c r="L251" s="11"/>
       <c r="M251" s="13"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N251" s="13"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
@@ -4382,8 +4633,9 @@
       <c r="K252" s="11"/>
       <c r="L252" s="11"/>
       <c r="M252" s="13"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N252" s="13"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -4397,8 +4649,9 @@
       <c r="K253" s="11"/>
       <c r="L253" s="11"/>
       <c r="M253" s="13"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N253" s="13"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -4412,8 +4665,9 @@
       <c r="K254" s="11"/>
       <c r="L254" s="11"/>
       <c r="M254" s="13"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N254" s="13"/>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -4427,8 +4681,9 @@
       <c r="K255" s="11"/>
       <c r="L255" s="11"/>
       <c r="M255" s="13"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N255" s="13"/>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -4442,8 +4697,9 @@
       <c r="K256" s="11"/>
       <c r="L256" s="11"/>
       <c r="M256" s="13"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N256" s="13"/>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -4457,8 +4713,9 @@
       <c r="K257" s="11"/>
       <c r="L257" s="11"/>
       <c r="M257" s="13"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N257" s="13"/>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -4472,8 +4729,9 @@
       <c r="K258" s="11"/>
       <c r="L258" s="11"/>
       <c r="M258" s="13"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N258" s="13"/>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -4487,8 +4745,9 @@
       <c r="K259" s="11"/>
       <c r="L259" s="11"/>
       <c r="M259" s="13"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N259" s="13"/>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A260" s="11"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
@@ -4502,8 +4761,9 @@
       <c r="K260" s="11"/>
       <c r="L260" s="11"/>
       <c r="M260" s="13"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N260" s="13"/>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A261" s="11"/>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
@@ -4517,8 +4777,9 @@
       <c r="K261" s="11"/>
       <c r="L261" s="11"/>
       <c r="M261" s="13"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N261" s="13"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
@@ -4532,8 +4793,9 @@
       <c r="K262" s="11"/>
       <c r="L262" s="11"/>
       <c r="M262" s="13"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N262" s="13"/>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A263" s="11"/>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
@@ -4547,8 +4809,9 @@
       <c r="K263" s="11"/>
       <c r="L263" s="11"/>
       <c r="M263" s="13"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N263" s="13"/>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -4562,8 +4825,9 @@
       <c r="K264" s="11"/>
       <c r="L264" s="11"/>
       <c r="M264" s="13"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N264" s="13"/>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A265" s="11"/>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
@@ -4577,8 +4841,9 @@
       <c r="K265" s="11"/>
       <c r="L265" s="11"/>
       <c r="M265" s="13"/>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N265" s="13"/>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A266" s="11"/>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
@@ -4592,8 +4857,9 @@
       <c r="K266" s="11"/>
       <c r="L266" s="11"/>
       <c r="M266" s="13"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N266" s="13"/>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A267" s="11"/>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
@@ -4607,8 +4873,9 @@
       <c r="K267" s="11"/>
       <c r="L267" s="11"/>
       <c r="M267" s="13"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N267" s="13"/>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A268" s="11"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -4622,8 +4889,9 @@
       <c r="K268" s="11"/>
       <c r="L268" s="11"/>
       <c r="M268" s="13"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N268" s="13"/>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A269" s="11"/>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -4637,8 +4905,9 @@
       <c r="K269" s="11"/>
       <c r="L269" s="11"/>
       <c r="M269" s="13"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N269" s="13"/>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A270" s="11"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
@@ -4652,8 +4921,9 @@
       <c r="K270" s="11"/>
       <c r="L270" s="11"/>
       <c r="M270" s="13"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N270" s="13"/>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -4667,8 +4937,9 @@
       <c r="K271" s="11"/>
       <c r="L271" s="11"/>
       <c r="M271" s="13"/>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N271" s="13"/>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A272" s="11"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
@@ -4682,8 +4953,9 @@
       <c r="K272" s="11"/>
       <c r="L272" s="11"/>
       <c r="M272" s="13"/>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N272" s="13"/>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
@@ -4697,8 +4969,9 @@
       <c r="K273" s="11"/>
       <c r="L273" s="11"/>
       <c r="M273" s="13"/>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N273" s="13"/>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A274" s="11"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
@@ -4712,8 +4985,9 @@
       <c r="K274" s="11"/>
       <c r="L274" s="11"/>
       <c r="M274" s="13"/>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N274" s="13"/>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
@@ -4727,8 +5001,9 @@
       <c r="K275" s="11"/>
       <c r="L275" s="11"/>
       <c r="M275" s="13"/>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N275" s="13"/>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A276" s="11"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
@@ -4742,8 +5017,9 @@
       <c r="K276" s="11"/>
       <c r="L276" s="11"/>
       <c r="M276" s="13"/>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N276" s="13"/>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A277" s="11"/>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
@@ -4757,8 +5033,9 @@
       <c r="K277" s="11"/>
       <c r="L277" s="11"/>
       <c r="M277" s="13"/>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N277" s="13"/>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -4772,8 +5049,9 @@
       <c r="K278" s="11"/>
       <c r="L278" s="11"/>
       <c r="M278" s="13"/>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N278" s="13"/>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
@@ -4787,8 +5065,9 @@
       <c r="K279" s="11"/>
       <c r="L279" s="11"/>
       <c r="M279" s="13"/>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N279" s="13"/>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -4802,8 +5081,9 @@
       <c r="K280" s="11"/>
       <c r="L280" s="11"/>
       <c r="M280" s="13"/>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N280" s="13"/>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -4817,8 +5097,9 @@
       <c r="K281" s="11"/>
       <c r="L281" s="11"/>
       <c r="M281" s="13"/>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N281" s="13"/>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A282" s="11"/>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
@@ -4832,8 +5113,9 @@
       <c r="K282" s="11"/>
       <c r="L282" s="11"/>
       <c r="M282" s="13"/>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N282" s="13"/>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -4847,8 +5129,9 @@
       <c r="K283" s="11"/>
       <c r="L283" s="11"/>
       <c r="M283" s="13"/>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N283" s="13"/>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A284" s="11"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
@@ -4862,8 +5145,9 @@
       <c r="K284" s="11"/>
       <c r="L284" s="11"/>
       <c r="M284" s="13"/>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N284" s="13"/>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A285" s="11"/>
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
@@ -4877,8 +5161,9 @@
       <c r="K285" s="11"/>
       <c r="L285" s="11"/>
       <c r="M285" s="13"/>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N285" s="13"/>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A286" s="11"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
@@ -4892,8 +5177,9 @@
       <c r="K286" s="11"/>
       <c r="L286" s="11"/>
       <c r="M286" s="13"/>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N286" s="13"/>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A287" s="11"/>
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
@@ -4907,8 +5193,9 @@
       <c r="K287" s="11"/>
       <c r="L287" s="11"/>
       <c r="M287" s="13"/>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N287" s="13"/>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A288" s="11"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
@@ -4922,8 +5209,9 @@
       <c r="K288" s="11"/>
       <c r="L288" s="11"/>
       <c r="M288" s="13"/>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N288" s="13"/>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A289" s="11"/>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
@@ -4937,8 +5225,9 @@
       <c r="K289" s="11"/>
       <c r="L289" s="11"/>
       <c r="M289" s="13"/>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N289" s="13"/>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A290" s="11"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
@@ -4952,8 +5241,9 @@
       <c r="K290" s="11"/>
       <c r="L290" s="11"/>
       <c r="M290" s="13"/>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N290" s="13"/>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A291" s="11"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
@@ -4967,8 +5257,9 @@
       <c r="K291" s="11"/>
       <c r="L291" s="11"/>
       <c r="M291" s="13"/>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N291" s="13"/>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A292" s="11"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
@@ -4982,8 +5273,9 @@
       <c r="K292" s="11"/>
       <c r="L292" s="11"/>
       <c r="M292" s="13"/>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N292" s="13"/>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A293" s="11"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
@@ -4997,8 +5289,9 @@
       <c r="K293" s="11"/>
       <c r="L293" s="11"/>
       <c r="M293" s="13"/>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N293" s="13"/>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A294" s="11"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
@@ -5012,8 +5305,9 @@
       <c r="K294" s="11"/>
       <c r="L294" s="11"/>
       <c r="M294" s="13"/>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N294" s="13"/>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A295" s="11"/>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
@@ -5027,8 +5321,9 @@
       <c r="K295" s="11"/>
       <c r="L295" s="11"/>
       <c r="M295" s="13"/>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N295" s="13"/>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A296" s="11"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
@@ -5042,8 +5337,9 @@
       <c r="K296" s="11"/>
       <c r="L296" s="11"/>
       <c r="M296" s="13"/>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N296" s="13"/>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A297" s="11"/>
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
@@ -5057,8 +5353,9 @@
       <c r="K297" s="11"/>
       <c r="L297" s="11"/>
       <c r="M297" s="13"/>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N297" s="13"/>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A298" s="11"/>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
@@ -5072,8 +5369,9 @@
       <c r="K298" s="11"/>
       <c r="L298" s="11"/>
       <c r="M298" s="13"/>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N298" s="13"/>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A299" s="11"/>
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
@@ -5087,8 +5385,9 @@
       <c r="K299" s="11"/>
       <c r="L299" s="11"/>
       <c r="M299" s="13"/>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N299" s="13"/>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A300" s="11"/>
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
@@ -5102,8 +5401,9 @@
       <c r="K300" s="11"/>
       <c r="L300" s="11"/>
       <c r="M300" s="13"/>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N300" s="13"/>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A301" s="11"/>
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
@@ -5117,8 +5417,9 @@
       <c r="K301" s="11"/>
       <c r="L301" s="11"/>
       <c r="M301" s="13"/>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N301" s="13"/>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A302" s="11"/>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
@@ -5132,8 +5433,9 @@
       <c r="K302" s="11"/>
       <c r="L302" s="11"/>
       <c r="M302" s="13"/>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N302" s="13"/>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A303" s="11"/>
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
@@ -5147,8 +5449,9 @@
       <c r="K303" s="11"/>
       <c r="L303" s="11"/>
       <c r="M303" s="13"/>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N303" s="13"/>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
@@ -5162,8 +5465,9 @@
       <c r="K304" s="11"/>
       <c r="L304" s="11"/>
       <c r="M304" s="13"/>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N304" s="13"/>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
@@ -5177,8 +5481,9 @@
       <c r="K305" s="11"/>
       <c r="L305" s="11"/>
       <c r="M305" s="13"/>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N305" s="13"/>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
@@ -5192,8 +5497,9 @@
       <c r="K306" s="11"/>
       <c r="L306" s="11"/>
       <c r="M306" s="13"/>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N306" s="13"/>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
@@ -5207,8 +5513,9 @@
       <c r="K307" s="11"/>
       <c r="L307" s="11"/>
       <c r="M307" s="13"/>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N307" s="13"/>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
@@ -5222,8 +5529,9 @@
       <c r="K308" s="11"/>
       <c r="L308" s="11"/>
       <c r="M308" s="13"/>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N308" s="13"/>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A309" s="11"/>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
@@ -5237,8 +5545,9 @@
       <c r="K309" s="11"/>
       <c r="L309" s="11"/>
       <c r="M309" s="13"/>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N309" s="13"/>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A310" s="11"/>
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
@@ -5252,8 +5561,9 @@
       <c r="K310" s="11"/>
       <c r="L310" s="11"/>
       <c r="M310" s="13"/>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N310" s="13"/>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A311" s="11"/>
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
@@ -5267,8 +5577,9 @@
       <c r="K311" s="11"/>
       <c r="L311" s="11"/>
       <c r="M311" s="13"/>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N311" s="13"/>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A312" s="11"/>
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
@@ -5282,8 +5593,9 @@
       <c r="K312" s="11"/>
       <c r="L312" s="11"/>
       <c r="M312" s="13"/>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N312" s="13"/>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A313" s="11"/>
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
@@ -5297,8 +5609,9 @@
       <c r="K313" s="11"/>
       <c r="L313" s="11"/>
       <c r="M313" s="13"/>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N313" s="13"/>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A314" s="11"/>
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
@@ -5312,8 +5625,9 @@
       <c r="K314" s="11"/>
       <c r="L314" s="11"/>
       <c r="M314" s="13"/>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N314" s="13"/>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
@@ -5327,8 +5641,9 @@
       <c r="K315" s="11"/>
       <c r="L315" s="11"/>
       <c r="M315" s="13"/>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N315" s="13"/>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A316" s="11"/>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
@@ -5342,8 +5657,9 @@
       <c r="K316" s="11"/>
       <c r="L316" s="11"/>
       <c r="M316" s="13"/>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N316" s="13"/>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A317" s="11"/>
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
@@ -5357,8 +5673,9 @@
       <c r="K317" s="11"/>
       <c r="L317" s="11"/>
       <c r="M317" s="13"/>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N317" s="13"/>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A318" s="11"/>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
@@ -5372,8 +5689,9 @@
       <c r="K318" s="11"/>
       <c r="L318" s="11"/>
       <c r="M318" s="13"/>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N318" s="13"/>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A319" s="11"/>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
@@ -5387,8 +5705,9 @@
       <c r="K319" s="11"/>
       <c r="L319" s="11"/>
       <c r="M319" s="13"/>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N319" s="13"/>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A320" s="11"/>
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
@@ -5402,8 +5721,9 @@
       <c r="K320" s="11"/>
       <c r="L320" s="11"/>
       <c r="M320" s="13"/>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N320" s="13"/>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A321" s="11"/>
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
@@ -5417,8 +5737,9 @@
       <c r="K321" s="11"/>
       <c r="L321" s="11"/>
       <c r="M321" s="13"/>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N321" s="13"/>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A322" s="11"/>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
@@ -5432,8 +5753,9 @@
       <c r="K322" s="11"/>
       <c r="L322" s="11"/>
       <c r="M322" s="13"/>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N322" s="13"/>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A323" s="11"/>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
@@ -5447,6 +5769,55 @@
       <c r="K323" s="11"/>
       <c r="L323" s="11"/>
       <c r="M323" s="13"/>
+      <c r="N323" s="13"/>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A324" s="11"/>
+      <c r="B324" s="11"/>
+      <c r="C324" s="11"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="12"/>
+      <c r="F324" s="11"/>
+      <c r="G324" s="11"/>
+      <c r="H324" s="11"/>
+      <c r="I324" s="11"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="11"/>
+      <c r="L324" s="11"/>
+      <c r="M324" s="13"/>
+      <c r="N324" s="13"/>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A325" s="11"/>
+      <c r="B325" s="11"/>
+      <c r="C325" s="11"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="12"/>
+      <c r="F325" s="11"/>
+      <c r="G325" s="11"/>
+      <c r="H325" s="11"/>
+      <c r="I325" s="11"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="11"/>
+      <c r="L325" s="11"/>
+      <c r="M325" s="13"/>
+      <c r="N325" s="13"/>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A326" s="11"/>
+      <c r="B326" s="11"/>
+      <c r="C326" s="11"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="12"/>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="11"/>
+      <c r="I326" s="11"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="11"/>
+      <c r="L326" s="11"/>
+      <c r="M326" s="13"/>
+      <c r="N326" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/TFC_zaiko.xlsx
+++ b/TFC_zaiko.xlsx
@@ -9,7 +9,11 @@
   <sheets>
     <sheet name="zaiko" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">zaiko!$A$4:$N$326</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">zaiko!$1:$3</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -563,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,13 +575,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="H307" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N318" sqref="N318"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5821,7 +5828,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="65" firstPageNumber="0" fitToHeight="4" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TFC_zaiko.xlsx
+++ b/TFC_zaiko.xlsx
@@ -10,15 +10,15 @@
     <sheet name="zaiko" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">zaiko!$B$4:$R$359</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">zaiko!$B$4:$R$362</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">zaiko!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>TFC在庫報告</t>
   </si>
@@ -26,10 +26,22 @@
     <t>PO/INV</t>
   </si>
   <si>
+    <t>TI200625B</t>
+  </si>
+  <si>
+    <t>TI200702B</t>
+  </si>
+  <si>
     <t>確定</t>
   </si>
   <si>
     <t>ETD</t>
+  </si>
+  <si>
+    <t>06-25</t>
+  </si>
+  <si>
+    <t>07-02</t>
   </si>
   <si>
     <t>コード</t>
@@ -45,6 +57,12 @@
   </si>
   <si>
     <t>南濃取込</t>
+  </si>
+  <si>
+    <t>07-08</t>
+  </si>
+  <si>
+    <t>07-15</t>
   </si>
   <si>
     <t>布地</t>
@@ -185,7 +203,19 @@
     <t>廃番布地</t>
   </si>
   <si>
+    <t>旧モデル</t>
+  </si>
+  <si>
     <t>旧カバー</t>
+  </si>
+  <si>
+    <t>013CH232W-35C SP/184</t>
+  </si>
+  <si>
+    <t>013CH232W-37C SP/184</t>
+  </si>
+  <si>
+    <t>013CH232WI-50C SP/184</t>
   </si>
 </sst>
 </file>
@@ -582,13 +612,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,7 +923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -904,13 +934,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMO360"/>
+  <dimension ref="A1:AMO367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H351" sqref="H351"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,7 +955,7 @@
     <col min="18" max="1029" width="8.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -933,8 +963,12 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -945,18 +979,20 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1"/>
-      <c r="T1"/>
-    </row>
-    <row r="2" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="G2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -967,27 +1003,29 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
@@ -998,12 +1036,10 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
       <c r="R3" s="39"/>
-      <c r="S3"/>
-      <c r="T3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
-        <v>9</v>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="42" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="23"/>
@@ -1022,10 +1058,8 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
-      <c r="S4"/>
-      <c r="T4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
       <c r="B5" s="20"/>
       <c r="C5" s="29"/>
@@ -1044,10 +1078,8 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="22"/>
-      <c r="S5"/>
-      <c r="T5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="41"/>
       <c r="B6" s="20"/>
       <c r="C6" s="29"/>
@@ -1066,10 +1098,8 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="22"/>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="20"/>
       <c r="C7" s="29"/>
@@ -1088,10 +1118,8 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="22"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="41"/>
       <c r="B8" s="20"/>
       <c r="C8" s="29"/>
@@ -1110,10 +1138,8 @@
       <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="22"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="41"/>
       <c r="B9" s="20"/>
       <c r="C9" s="29"/>
@@ -1132,10 +1158,8 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="22"/>
-      <c r="S9"/>
-      <c r="T9"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
       <c r="B10" s="20"/>
       <c r="C10" s="29"/>
@@ -1154,10 +1178,8 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="22"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
       <c r="B11" s="20"/>
       <c r="C11" s="29"/>
@@ -1176,10 +1198,8 @@
       <c r="P11" s="20"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="22"/>
-      <c r="S11"/>
-      <c r="T11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
       <c r="B12" s="20"/>
       <c r="C12" s="29"/>
@@ -1198,10 +1218,8 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="22"/>
-      <c r="S12"/>
-      <c r="T12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
       <c r="B13" s="20"/>
       <c r="C13" s="29"/>
@@ -1220,10 +1238,8 @@
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="22"/>
-      <c r="S13"/>
-      <c r="T13"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
       <c r="B14" s="20"/>
       <c r="C14" s="29"/>
@@ -1242,10 +1258,8 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="22"/>
-      <c r="S14"/>
-      <c r="T14"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
       <c r="B15" s="20"/>
       <c r="C15" s="29"/>
@@ -1264,10 +1278,8 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="22"/>
-      <c r="S15"/>
-      <c r="T15"/>
-    </row>
-    <row r="16" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
       <c r="B16" s="10"/>
       <c r="C16" s="25"/>
@@ -1286,12 +1298,10 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="12"/>
-      <c r="S16"/>
-      <c r="T16"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
-        <v>10</v>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="23"/>
@@ -1310,10 +1320,8 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="9"/>
-      <c r="S17"/>
-      <c r="T17"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
       <c r="B18" s="20"/>
       <c r="C18" s="29"/>
@@ -1332,10 +1340,8 @@
       <c r="P18" s="20"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="22"/>
-      <c r="S18"/>
-      <c r="T18"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
       <c r="B19" s="20"/>
       <c r="C19" s="29"/>
@@ -1354,10 +1360,8 @@
       <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="22"/>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
       <c r="B20" s="20"/>
       <c r="C20" s="29"/>
@@ -1376,10 +1380,8 @@
       <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="22"/>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
       <c r="B21" s="20"/>
       <c r="C21" s="29"/>
@@ -1398,10 +1400,8 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="22"/>
-      <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
       <c r="B22" s="20"/>
       <c r="C22" s="29"/>
@@ -1420,10 +1420,8 @@
       <c r="P22" s="20"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
       <c r="B23" s="20"/>
       <c r="C23" s="29"/>
@@ -1442,10 +1440,8 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="22"/>
-      <c r="S23"/>
-      <c r="T23"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
       <c r="B24" s="20"/>
       <c r="C24" s="29"/>
@@ -1464,10 +1460,8 @@
       <c r="P24" s="20"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="22"/>
-      <c r="S24"/>
-      <c r="T24"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
       <c r="B25" s="20"/>
       <c r="C25" s="29"/>
@@ -1486,10 +1480,8 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="22"/>
-      <c r="S25"/>
-      <c r="T25"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
       <c r="B26" s="20"/>
       <c r="C26" s="29"/>
@@ -1508,10 +1500,8 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="22"/>
-      <c r="S26"/>
-      <c r="T26"/>
-    </row>
-    <row r="27" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="10"/>
       <c r="C27" s="25"/>
@@ -1530,12 +1520,10 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="12"/>
-      <c r="S27"/>
-      <c r="T27"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A28" s="40" t="s">
-        <v>11</v>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="42" t="s">
+        <v>17</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="23"/>
@@ -1554,10 +1542,8 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="9"/>
-      <c r="S28"/>
-      <c r="T28"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
       <c r="B29" s="20"/>
       <c r="C29" s="29"/>
@@ -1576,10 +1562,8 @@
       <c r="P29" s="20"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="22"/>
-      <c r="S29"/>
-      <c r="T29"/>
-    </row>
-    <row r="30" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="10"/>
       <c r="C30" s="25"/>
@@ -1598,12 +1582,10 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="12"/>
-      <c r="S30"/>
-      <c r="T30"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A31" s="40" t="s">
-        <v>12</v>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="42" t="s">
+        <v>18</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="23"/>
@@ -1622,10 +1604,8 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="9"/>
-      <c r="S31"/>
-      <c r="T31"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="41"/>
       <c r="B32" s="20"/>
       <c r="C32" s="29"/>
@@ -1644,10 +1624,8 @@
       <c r="P32" s="20"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="22"/>
-      <c r="S32"/>
-      <c r="T32"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="41"/>
       <c r="B33" s="20"/>
       <c r="C33" s="29"/>
@@ -1666,10 +1644,8 @@
       <c r="P33" s="20"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="22"/>
-      <c r="S33"/>
-      <c r="T33"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="41"/>
       <c r="B34" s="20"/>
       <c r="C34" s="29"/>
@@ -1688,10 +1664,8 @@
       <c r="P34" s="20"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="22"/>
-      <c r="S34"/>
-      <c r="T34"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="41"/>
       <c r="B35" s="20"/>
       <c r="C35" s="29"/>
@@ -1710,10 +1684,8 @@
       <c r="P35" s="20"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="22"/>
-      <c r="S35"/>
-      <c r="T35"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="41"/>
       <c r="B36" s="20"/>
       <c r="C36" s="29"/>
@@ -1732,10 +1704,8 @@
       <c r="P36" s="20"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="22"/>
-      <c r="S36"/>
-      <c r="T36"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="41"/>
       <c r="B37" s="20"/>
       <c r="C37" s="29"/>
@@ -1754,10 +1724,8 @@
       <c r="P37" s="20"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="22"/>
-      <c r="S37"/>
-      <c r="T37"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="41"/>
       <c r="B38" s="20"/>
       <c r="C38" s="29"/>
@@ -1776,10 +1744,8 @@
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="22"/>
-      <c r="S38"/>
-      <c r="T38"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="41"/>
       <c r="B39" s="20"/>
       <c r="C39" s="29"/>
@@ -1798,10 +1764,8 @@
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="22"/>
-      <c r="S39"/>
-      <c r="T39"/>
-    </row>
-    <row r="40" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="10"/>
       <c r="C40" s="25"/>
@@ -1820,12 +1784,10 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="12"/>
-      <c r="S40"/>
-      <c r="T40"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" s="40" t="s">
-        <v>13</v>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="23"/>
@@ -1844,10 +1806,8 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="9"/>
-      <c r="S41"/>
-      <c r="T41"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="41"/>
       <c r="B42" s="20"/>
       <c r="C42" s="29"/>
@@ -1866,10 +1826,8 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="22"/>
-      <c r="S42"/>
-      <c r="T42"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="41"/>
       <c r="B43" s="20"/>
       <c r="C43" s="29"/>
@@ -1888,10 +1846,8 @@
       <c r="P43" s="20"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="22"/>
-      <c r="S43"/>
-      <c r="T43"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="41"/>
       <c r="B44" s="20"/>
       <c r="C44" s="29"/>
@@ -1910,10 +1866,8 @@
       <c r="P44" s="20"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="22"/>
-      <c r="S44"/>
-      <c r="T44"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="41"/>
       <c r="B45" s="20"/>
       <c r="C45" s="29"/>
@@ -1932,10 +1886,8 @@
       <c r="P45" s="20"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="22"/>
-      <c r="S45"/>
-      <c r="T45"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="41"/>
       <c r="B46" s="20"/>
       <c r="C46" s="29"/>
@@ -1954,10 +1906,8 @@
       <c r="P46" s="20"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="22"/>
-      <c r="S46"/>
-      <c r="T46"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="41"/>
       <c r="B47" s="20"/>
       <c r="C47" s="29"/>
@@ -1976,10 +1926,8 @@
       <c r="P47" s="20"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="22"/>
-      <c r="S47"/>
-      <c r="T47"/>
-    </row>
-    <row r="48" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="41"/>
       <c r="B48" s="10"/>
       <c r="C48" s="25"/>
@@ -1998,12 +1946,10 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="12"/>
-      <c r="S48"/>
-      <c r="T48"/>
-    </row>
-    <row r="49" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="27"/>
@@ -2022,12 +1968,10 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="15"/>
-      <c r="S49"/>
-      <c r="T49"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A50" s="42" t="s">
-        <v>15</v>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A50" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="23"/>
@@ -2046,10 +1990,8 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="9"/>
-      <c r="S50"/>
-      <c r="T50"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="41"/>
       <c r="B51" s="20"/>
       <c r="C51" s="29"/>
@@ -2068,10 +2010,8 @@
       <c r="P51" s="20"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="22"/>
-      <c r="S51"/>
-      <c r="T51"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="41"/>
       <c r="B52" s="20"/>
       <c r="C52" s="29"/>
@@ -2090,10 +2030,8 @@
       <c r="P52" s="20"/>
       <c r="Q52" s="21"/>
       <c r="R52" s="22"/>
-      <c r="S52"/>
-      <c r="T52"/>
-    </row>
-    <row r="53" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="41"/>
       <c r="B53" s="10"/>
       <c r="C53" s="25"/>
@@ -2112,12 +2050,10 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="12"/>
-      <c r="S53"/>
-      <c r="T53"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A54" s="40" t="s">
-        <v>16</v>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A54" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="23"/>
@@ -2136,10 +2072,8 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="9"/>
-      <c r="S54"/>
-      <c r="T54"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="41"/>
       <c r="B55" s="20"/>
       <c r="C55" s="29"/>
@@ -2158,10 +2092,8 @@
       <c r="P55" s="20"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="22"/>
-      <c r="S55"/>
-      <c r="T55"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="29"/>
@@ -2180,10 +2112,8 @@
       <c r="P56" s="20"/>
       <c r="Q56" s="21"/>
       <c r="R56" s="22"/>
-      <c r="S56"/>
-      <c r="T56"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="41"/>
       <c r="B57" s="20"/>
       <c r="C57" s="29"/>
@@ -2202,10 +2132,8 @@
       <c r="P57" s="20"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="22"/>
-      <c r="S57"/>
-      <c r="T57"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="41"/>
       <c r="B58" s="20"/>
       <c r="C58" s="29"/>
@@ -2224,10 +2152,8 @@
       <c r="P58" s="20"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="22"/>
-      <c r="S58"/>
-      <c r="T58"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="41"/>
       <c r="B59" s="20"/>
       <c r="C59" s="29"/>
@@ -2246,10 +2172,8 @@
       <c r="P59" s="20"/>
       <c r="Q59" s="21"/>
       <c r="R59" s="22"/>
-      <c r="S59"/>
-      <c r="T59"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="29"/>
@@ -2268,10 +2192,8 @@
       <c r="P60" s="20"/>
       <c r="Q60" s="21"/>
       <c r="R60" s="22"/>
-      <c r="S60"/>
-      <c r="T60"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="29"/>
@@ -2290,10 +2212,8 @@
       <c r="P61" s="20"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="22"/>
-      <c r="S61"/>
-      <c r="T61"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="29"/>
@@ -2312,10 +2232,8 @@
       <c r="P62" s="20"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="22"/>
-      <c r="S62"/>
-      <c r="T62"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="41"/>
       <c r="B63" s="20"/>
       <c r="C63" s="29"/>
@@ -2334,10 +2252,8 @@
       <c r="P63" s="20"/>
       <c r="Q63" s="21"/>
       <c r="R63" s="22"/>
-      <c r="S63"/>
-      <c r="T63"/>
-    </row>
-    <row r="64" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="41"/>
       <c r="B64" s="10"/>
       <c r="C64" s="25"/>
@@ -2356,12 +2272,10 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="12"/>
-      <c r="S64"/>
-      <c r="T64"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A65" s="40" t="s">
-        <v>17</v>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A65" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="23"/>
@@ -2380,10 +2294,8 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="9"/>
-      <c r="S65"/>
-      <c r="T65"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="41"/>
       <c r="B66" s="20"/>
       <c r="C66" s="29"/>
@@ -2402,10 +2314,8 @@
       <c r="P66" s="20"/>
       <c r="Q66" s="21"/>
       <c r="R66" s="22"/>
-      <c r="S66"/>
-      <c r="T66"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="29"/>
@@ -2424,10 +2334,8 @@
       <c r="P67" s="20"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="22"/>
-      <c r="S67"/>
-      <c r="T67"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="29"/>
@@ -2446,10 +2354,8 @@
       <c r="P68" s="20"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="22"/>
-      <c r="S68"/>
-      <c r="T68"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="29"/>
@@ -2468,10 +2374,8 @@
       <c r="P69" s="20"/>
       <c r="Q69" s="21"/>
       <c r="R69" s="22"/>
-      <c r="S69"/>
-      <c r="T69"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="29"/>
@@ -2490,10 +2394,8 @@
       <c r="P70" s="20"/>
       <c r="Q70" s="21"/>
       <c r="R70" s="22"/>
-      <c r="S70"/>
-      <c r="T70"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="29"/>
@@ -2512,10 +2414,8 @@
       <c r="P71" s="20"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="22"/>
-      <c r="S71"/>
-      <c r="T71"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="41"/>
       <c r="B72" s="20"/>
       <c r="C72" s="29"/>
@@ -2534,10 +2434,8 @@
       <c r="P72" s="20"/>
       <c r="Q72" s="21"/>
       <c r="R72" s="22"/>
-      <c r="S72"/>
-      <c r="T72"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="41"/>
       <c r="B73" s="20"/>
       <c r="C73" s="29"/>
@@ -2556,10 +2454,8 @@
       <c r="P73" s="20"/>
       <c r="Q73" s="21"/>
       <c r="R73" s="22"/>
-      <c r="S73"/>
-      <c r="T73"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="41"/>
       <c r="B74" s="20"/>
       <c r="C74" s="29"/>
@@ -2578,10 +2474,8 @@
       <c r="P74" s="20"/>
       <c r="Q74" s="21"/>
       <c r="R74" s="22"/>
-      <c r="S74"/>
-      <c r="T74"/>
-    </row>
-    <row r="75" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="41"/>
       <c r="B75" s="10"/>
       <c r="C75" s="25"/>
@@ -2600,12 +2494,10 @@
       <c r="P75" s="10"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="12"/>
-      <c r="S75"/>
-      <c r="T75"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A76" s="40" t="s">
-        <v>18</v>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A76" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="23"/>
@@ -2624,10 +2516,8 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="9"/>
-      <c r="S76"/>
-      <c r="T76"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="41"/>
       <c r="B77" s="20"/>
       <c r="C77" s="29"/>
@@ -2646,10 +2536,8 @@
       <c r="P77" s="20"/>
       <c r="Q77" s="21"/>
       <c r="R77" s="22"/>
-      <c r="S77"/>
-      <c r="T77"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" s="41"/>
       <c r="B78" s="20"/>
       <c r="C78" s="29"/>
@@ -2668,10 +2556,8 @@
       <c r="P78" s="20"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="22"/>
-      <c r="S78"/>
-      <c r="T78"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="41"/>
       <c r="B79" s="20"/>
       <c r="C79" s="29"/>
@@ -2690,10 +2576,8 @@
       <c r="P79" s="20"/>
       <c r="Q79" s="21"/>
       <c r="R79" s="22"/>
-      <c r="S79"/>
-      <c r="T79"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" s="41"/>
       <c r="B80" s="20"/>
       <c r="C80" s="29"/>
@@ -2712,10 +2596,8 @@
       <c r="P80" s="20"/>
       <c r="Q80" s="21"/>
       <c r="R80" s="22"/>
-      <c r="S80"/>
-      <c r="T80"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="41"/>
       <c r="B81" s="20"/>
       <c r="C81" s="29"/>
@@ -2734,10 +2616,8 @@
       <c r="P81" s="20"/>
       <c r="Q81" s="21"/>
       <c r="R81" s="22"/>
-      <c r="S81"/>
-      <c r="T81"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="41"/>
       <c r="B82" s="20"/>
       <c r="C82" s="29"/>
@@ -2756,10 +2636,8 @@
       <c r="P82" s="20"/>
       <c r="Q82" s="21"/>
       <c r="R82" s="22"/>
-      <c r="S82"/>
-      <c r="T82"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="29"/>
@@ -2778,10 +2656,8 @@
       <c r="P83" s="20"/>
       <c r="Q83" s="21"/>
       <c r="R83" s="22"/>
-      <c r="S83"/>
-      <c r="T83"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="29"/>
@@ -2800,10 +2676,8 @@
       <c r="P84" s="20"/>
       <c r="Q84" s="21"/>
       <c r="R84" s="22"/>
-      <c r="S84"/>
-      <c r="T84"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="29"/>
@@ -2822,10 +2696,8 @@
       <c r="P85" s="20"/>
       <c r="Q85" s="21"/>
       <c r="R85" s="22"/>
-      <c r="S85"/>
-      <c r="T85"/>
-    </row>
-    <row r="86" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="41"/>
       <c r="B86" s="10"/>
       <c r="C86" s="25"/>
@@ -2844,12 +2716,10 @@
       <c r="P86" s="10"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="12"/>
-      <c r="S86"/>
-      <c r="T86"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A87" s="40" t="s">
-        <v>19</v>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A87" s="42" t="s">
+        <v>25</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="23"/>
@@ -2868,10 +2738,8 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="9"/>
-      <c r="S87"/>
-      <c r="T87"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="29"/>
@@ -2890,10 +2758,8 @@
       <c r="P88" s="20"/>
       <c r="Q88" s="21"/>
       <c r="R88" s="22"/>
-      <c r="S88"/>
-      <c r="T88"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="29"/>
@@ -2912,10 +2778,8 @@
       <c r="P89" s="20"/>
       <c r="Q89" s="21"/>
       <c r="R89" s="22"/>
-      <c r="S89"/>
-      <c r="T89"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="29"/>
@@ -2934,10 +2798,8 @@
       <c r="P90" s="20"/>
       <c r="Q90" s="21"/>
       <c r="R90" s="22"/>
-      <c r="S90"/>
-      <c r="T90"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="29"/>
@@ -2956,10 +2818,8 @@
       <c r="P91" s="20"/>
       <c r="Q91" s="21"/>
       <c r="R91" s="22"/>
-      <c r="S91"/>
-      <c r="T91"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="29"/>
@@ -2978,10 +2838,8 @@
       <c r="P92" s="20"/>
       <c r="Q92" s="21"/>
       <c r="R92" s="22"/>
-      <c r="S92"/>
-      <c r="T92"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="29"/>
@@ -3000,10 +2858,8 @@
       <c r="P93" s="20"/>
       <c r="Q93" s="21"/>
       <c r="R93" s="22"/>
-      <c r="S93"/>
-      <c r="T93"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="29"/>
@@ -3022,10 +2878,8 @@
       <c r="P94" s="20"/>
       <c r="Q94" s="21"/>
       <c r="R94" s="22"/>
-      <c r="S94"/>
-      <c r="T94"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="29"/>
@@ -3044,10 +2898,8 @@
       <c r="P95" s="20"/>
       <c r="Q95" s="21"/>
       <c r="R95" s="22"/>
-      <c r="S95"/>
-      <c r="T95"/>
-    </row>
-    <row r="96" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="41"/>
       <c r="B96" s="10"/>
       <c r="C96" s="25"/>
@@ -3066,12 +2918,10 @@
       <c r="P96" s="10"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="12"/>
-      <c r="S96"/>
-      <c r="T96"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A97" s="40" t="s">
-        <v>20</v>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A97" s="42" t="s">
+        <v>26</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="23"/>
@@ -3090,10 +2940,8 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="9"/>
-      <c r="S97"/>
-      <c r="T97"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="29"/>
@@ -3112,10 +2960,8 @@
       <c r="P98" s="20"/>
       <c r="Q98" s="21"/>
       <c r="R98" s="22"/>
-      <c r="S98"/>
-      <c r="T98"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="29"/>
@@ -3134,10 +2980,8 @@
       <c r="P99" s="20"/>
       <c r="Q99" s="21"/>
       <c r="R99" s="22"/>
-      <c r="S99"/>
-      <c r="T99"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="29"/>
@@ -3156,10 +3000,8 @@
       <c r="P100" s="20"/>
       <c r="Q100" s="21"/>
       <c r="R100" s="22"/>
-      <c r="S100"/>
-      <c r="T100"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="29"/>
@@ -3178,10 +3020,8 @@
       <c r="P101" s="20"/>
       <c r="Q101" s="21"/>
       <c r="R101" s="22"/>
-      <c r="S101"/>
-      <c r="T101"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="29"/>
@@ -3200,10 +3040,8 @@
       <c r="P102" s="20"/>
       <c r="Q102" s="21"/>
       <c r="R102" s="22"/>
-      <c r="S102"/>
-      <c r="T102"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="29"/>
@@ -3222,10 +3060,8 @@
       <c r="P103" s="20"/>
       <c r="Q103" s="21"/>
       <c r="R103" s="22"/>
-      <c r="S103"/>
-      <c r="T103"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="29"/>
@@ -3244,10 +3080,8 @@
       <c r="P104" s="20"/>
       <c r="Q104" s="21"/>
       <c r="R104" s="22"/>
-      <c r="S104"/>
-      <c r="T104"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="29"/>
@@ -3266,10 +3100,8 @@
       <c r="P105" s="20"/>
       <c r="Q105" s="21"/>
       <c r="R105" s="22"/>
-      <c r="S105"/>
-      <c r="T105"/>
-    </row>
-    <row r="106" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="41"/>
       <c r="B106" s="10"/>
       <c r="C106" s="25"/>
@@ -3288,12 +3120,10 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="11"/>
       <c r="R106" s="12"/>
-      <c r="S106"/>
-      <c r="T106"/>
-    </row>
-    <row r="107" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="40" t="s">
-        <v>21</v>
+    </row>
+    <row r="107" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="42" t="s">
+        <v>27</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="23"/>
@@ -3312,10 +3142,8 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="9"/>
-      <c r="S107"/>
-      <c r="T107"/>
-    </row>
-    <row r="108" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="29"/>
@@ -3334,10 +3162,8 @@
       <c r="P108" s="20"/>
       <c r="Q108" s="21"/>
       <c r="R108" s="22"/>
-      <c r="S108"/>
-      <c r="T108"/>
-    </row>
-    <row r="109" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="29"/>
@@ -3356,10 +3182,8 @@
       <c r="P109" s="20"/>
       <c r="Q109" s="21"/>
       <c r="R109" s="22"/>
-      <c r="S109"/>
-      <c r="T109"/>
-    </row>
-    <row r="110" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="29"/>
@@ -3378,10 +3202,8 @@
       <c r="P110" s="20"/>
       <c r="Q110" s="21"/>
       <c r="R110" s="22"/>
-      <c r="S110"/>
-      <c r="T110"/>
-    </row>
-    <row r="111" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="29"/>
@@ -3400,10 +3222,8 @@
       <c r="P111" s="20"/>
       <c r="Q111" s="21"/>
       <c r="R111" s="22"/>
-      <c r="S111"/>
-      <c r="T111"/>
-    </row>
-    <row r="112" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="29"/>
@@ -3422,10 +3242,8 @@
       <c r="P112" s="20"/>
       <c r="Q112" s="21"/>
       <c r="R112" s="22"/>
-      <c r="S112"/>
-      <c r="T112"/>
-    </row>
-    <row r="113" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="29"/>
@@ -3444,10 +3262,8 @@
       <c r="P113" s="20"/>
       <c r="Q113" s="21"/>
       <c r="R113" s="22"/>
-      <c r="S113"/>
-      <c r="T113"/>
-    </row>
-    <row r="114" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="29"/>
@@ -3466,10 +3282,8 @@
       <c r="P114" s="20"/>
       <c r="Q114" s="21"/>
       <c r="R114" s="22"/>
-      <c r="S114"/>
-      <c r="T114"/>
-    </row>
-    <row r="115" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="41"/>
       <c r="B115" s="10"/>
       <c r="C115" s="25"/>
@@ -3488,12 +3302,10 @@
       <c r="P115" s="10"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="12"/>
-      <c r="S115"/>
-      <c r="T115"/>
-    </row>
-    <row r="116" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="40" t="s">
-        <v>22</v>
+    </row>
+    <row r="116" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="23"/>
@@ -3512,10 +3324,8 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="9"/>
-      <c r="S116"/>
-      <c r="T116"/>
-    </row>
-    <row r="117" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="29"/>
@@ -3534,10 +3344,8 @@
       <c r="P117" s="20"/>
       <c r="Q117" s="21"/>
       <c r="R117" s="22"/>
-      <c r="S117"/>
-      <c r="T117"/>
-    </row>
-    <row r="118" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="29"/>
@@ -3556,10 +3364,8 @@
       <c r="P118" s="20"/>
       <c r="Q118" s="21"/>
       <c r="R118" s="22"/>
-      <c r="S118"/>
-      <c r="T118"/>
-    </row>
-    <row r="119" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="29"/>
@@ -3578,10 +3384,8 @@
       <c r="P119" s="20"/>
       <c r="Q119" s="21"/>
       <c r="R119" s="22"/>
-      <c r="S119"/>
-      <c r="T119"/>
-    </row>
-    <row r="120" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="29"/>
@@ -3600,10 +3404,8 @@
       <c r="P120" s="20"/>
       <c r="Q120" s="21"/>
       <c r="R120" s="22"/>
-      <c r="S120"/>
-      <c r="T120"/>
-    </row>
-    <row r="121" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="29"/>
@@ -3622,10 +3424,8 @@
       <c r="P121" s="20"/>
       <c r="Q121" s="21"/>
       <c r="R121" s="22"/>
-      <c r="S121"/>
-      <c r="T121"/>
-    </row>
-    <row r="122" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="29"/>
@@ -3644,10 +3444,8 @@
       <c r="P122" s="20"/>
       <c r="Q122" s="21"/>
       <c r="R122" s="22"/>
-      <c r="S122"/>
-      <c r="T122"/>
-    </row>
-    <row r="123" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="29"/>
@@ -3666,10 +3464,8 @@
       <c r="P123" s="20"/>
       <c r="Q123" s="21"/>
       <c r="R123" s="22"/>
-      <c r="S123"/>
-      <c r="T123"/>
-    </row>
-    <row r="124" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A124" s="41"/>
       <c r="B124" s="10"/>
       <c r="C124" s="25"/>
@@ -3688,12 +3484,10 @@
       <c r="P124" s="10"/>
       <c r="Q124" s="11"/>
       <c r="R124" s="12"/>
-      <c r="S124"/>
-      <c r="T124"/>
-    </row>
-    <row r="125" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="40" t="s">
-        <v>23</v>
+    </row>
+    <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="42" t="s">
+        <v>29</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="23"/>
@@ -3712,10 +3506,8 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="8"/>
       <c r="R125" s="9"/>
-      <c r="S125"/>
-      <c r="T125"/>
-    </row>
-    <row r="126" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="29"/>
@@ -3734,10 +3526,8 @@
       <c r="P126" s="20"/>
       <c r="Q126" s="21"/>
       <c r="R126" s="22"/>
-      <c r="S126"/>
-      <c r="T126"/>
-    </row>
-    <row r="127" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="29"/>
@@ -3756,10 +3546,8 @@
       <c r="P127" s="20"/>
       <c r="Q127" s="21"/>
       <c r="R127" s="22"/>
-      <c r="S127"/>
-      <c r="T127"/>
-    </row>
-    <row r="128" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="41"/>
       <c r="B128" s="20"/>
       <c r="C128" s="29"/>
@@ -3778,10 +3566,8 @@
       <c r="P128" s="20"/>
       <c r="Q128" s="21"/>
       <c r="R128" s="22"/>
-      <c r="S128"/>
-      <c r="T128"/>
-    </row>
-    <row r="129" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="41"/>
       <c r="B129" s="20"/>
       <c r="C129" s="29"/>
@@ -3800,10 +3586,8 @@
       <c r="P129" s="20"/>
       <c r="Q129" s="21"/>
       <c r="R129" s="22"/>
-      <c r="S129"/>
-      <c r="T129"/>
-    </row>
-    <row r="130" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="41"/>
       <c r="B130" s="20"/>
       <c r="C130" s="29"/>
@@ -3822,10 +3606,8 @@
       <c r="P130" s="20"/>
       <c r="Q130" s="21"/>
       <c r="R130" s="22"/>
-      <c r="S130"/>
-      <c r="T130"/>
-    </row>
-    <row r="131" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="41"/>
       <c r="B131" s="20"/>
       <c r="C131" s="29"/>
@@ -3844,10 +3626,8 @@
       <c r="P131" s="20"/>
       <c r="Q131" s="21"/>
       <c r="R131" s="22"/>
-      <c r="S131"/>
-      <c r="T131"/>
-    </row>
-    <row r="132" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="41"/>
       <c r="B132" s="20"/>
       <c r="C132" s="29"/>
@@ -3866,10 +3646,8 @@
       <c r="P132" s="20"/>
       <c r="Q132" s="21"/>
       <c r="R132" s="22"/>
-      <c r="S132"/>
-      <c r="T132"/>
-    </row>
-    <row r="133" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="41"/>
       <c r="B133" s="10"/>
       <c r="C133" s="25"/>
@@ -3888,12 +3666,10 @@
       <c r="P133" s="10"/>
       <c r="Q133" s="11"/>
       <c r="R133" s="12"/>
-      <c r="S133"/>
-      <c r="T133"/>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A134" s="40" t="s">
-        <v>24</v>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A134" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="23"/>
@@ -3912,10 +3688,8 @@
       <c r="P134" s="7"/>
       <c r="Q134" s="8"/>
       <c r="R134" s="9"/>
-      <c r="S134"/>
-      <c r="T134"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A135" s="41"/>
       <c r="B135" s="20"/>
       <c r="C135" s="29"/>
@@ -3934,10 +3708,8 @@
       <c r="P135" s="20"/>
       <c r="Q135" s="21"/>
       <c r="R135" s="22"/>
-      <c r="S135"/>
-      <c r="T135"/>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A136" s="41"/>
       <c r="B136" s="20"/>
       <c r="C136" s="29"/>
@@ -3956,10 +3728,8 @@
       <c r="P136" s="20"/>
       <c r="Q136" s="21"/>
       <c r="R136" s="22"/>
-      <c r="S136"/>
-      <c r="T136"/>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A137" s="41"/>
       <c r="B137" s="20"/>
       <c r="C137" s="29"/>
@@ -3978,10 +3748,8 @@
       <c r="P137" s="20"/>
       <c r="Q137" s="21"/>
       <c r="R137" s="22"/>
-      <c r="S137"/>
-      <c r="T137"/>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A138" s="41"/>
       <c r="B138" s="20"/>
       <c r="C138" s="29"/>
@@ -4000,10 +3768,8 @@
       <c r="P138" s="20"/>
       <c r="Q138" s="21"/>
       <c r="R138" s="22"/>
-      <c r="S138"/>
-      <c r="T138"/>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A139" s="41"/>
       <c r="B139" s="20"/>
       <c r="C139" s="29"/>
@@ -4022,10 +3788,8 @@
       <c r="P139" s="20"/>
       <c r="Q139" s="21"/>
       <c r="R139" s="22"/>
-      <c r="S139"/>
-      <c r="T139"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A140" s="41"/>
       <c r="B140" s="20"/>
       <c r="C140" s="29"/>
@@ -4044,10 +3808,8 @@
       <c r="P140" s="20"/>
       <c r="Q140" s="21"/>
       <c r="R140" s="22"/>
-      <c r="S140"/>
-      <c r="T140"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A141" s="41"/>
       <c r="B141" s="20"/>
       <c r="C141" s="29"/>
@@ -4066,10 +3828,8 @@
       <c r="P141" s="20"/>
       <c r="Q141" s="21"/>
       <c r="R141" s="22"/>
-      <c r="S141"/>
-      <c r="T141"/>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A142" s="41"/>
       <c r="B142" s="20"/>
       <c r="C142" s="29"/>
@@ -4088,10 +3848,8 @@
       <c r="P142" s="20"/>
       <c r="Q142" s="21"/>
       <c r="R142" s="22"/>
-      <c r="S142"/>
-      <c r="T142"/>
-    </row>
-    <row r="143" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="41"/>
       <c r="B143" s="10"/>
       <c r="C143" s="25"/>
@@ -4110,12 +3868,10 @@
       <c r="P143" s="10"/>
       <c r="Q143" s="11"/>
       <c r="R143" s="12"/>
-      <c r="S143"/>
-      <c r="T143"/>
-    </row>
-    <row r="144" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="40" t="s">
-        <v>25</v>
+    </row>
+    <row r="144" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="23"/>
@@ -4134,10 +3890,8 @@
       <c r="P144" s="7"/>
       <c r="Q144" s="8"/>
       <c r="R144" s="9"/>
-      <c r="S144"/>
-      <c r="T144"/>
-    </row>
-    <row r="145" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="41"/>
       <c r="B145" s="20"/>
       <c r="C145" s="29"/>
@@ -4156,10 +3910,8 @@
       <c r="P145" s="20"/>
       <c r="Q145" s="21"/>
       <c r="R145" s="22"/>
-      <c r="S145"/>
-      <c r="T145"/>
-    </row>
-    <row r="146" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="41"/>
       <c r="B146" s="20"/>
       <c r="C146" s="29"/>
@@ -4178,10 +3930,8 @@
       <c r="P146" s="20"/>
       <c r="Q146" s="21"/>
       <c r="R146" s="22"/>
-      <c r="S146"/>
-      <c r="T146"/>
-    </row>
-    <row r="147" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="41"/>
       <c r="B147" s="20"/>
       <c r="C147" s="29"/>
@@ -4200,10 +3950,8 @@
       <c r="P147" s="20"/>
       <c r="Q147" s="21"/>
       <c r="R147" s="22"/>
-      <c r="S147"/>
-      <c r="T147"/>
-    </row>
-    <row r="148" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="41"/>
       <c r="B148" s="20"/>
       <c r="C148" s="29"/>
@@ -4222,10 +3970,8 @@
       <c r="P148" s="20"/>
       <c r="Q148" s="21"/>
       <c r="R148" s="22"/>
-      <c r="S148"/>
-      <c r="T148"/>
-    </row>
-    <row r="149" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="41"/>
       <c r="B149" s="20"/>
       <c r="C149" s="29"/>
@@ -4244,10 +3990,8 @@
       <c r="P149" s="20"/>
       <c r="Q149" s="21"/>
       <c r="R149" s="22"/>
-      <c r="S149"/>
-      <c r="T149"/>
-    </row>
-    <row r="150" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="41"/>
       <c r="B150" s="20"/>
       <c r="C150" s="29"/>
@@ -4266,10 +4010,8 @@
       <c r="P150" s="20"/>
       <c r="Q150" s="21"/>
       <c r="R150" s="22"/>
-      <c r="S150"/>
-      <c r="T150"/>
-    </row>
-    <row r="151" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="41"/>
       <c r="B151" s="20"/>
       <c r="C151" s="29"/>
@@ -4288,10 +4030,8 @@
       <c r="P151" s="20"/>
       <c r="Q151" s="21"/>
       <c r="R151" s="22"/>
-      <c r="S151"/>
-      <c r="T151"/>
-    </row>
-    <row r="152" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="41"/>
       <c r="B152" s="20"/>
       <c r="C152" s="29"/>
@@ -4310,10 +4050,8 @@
       <c r="P152" s="20"/>
       <c r="Q152" s="21"/>
       <c r="R152" s="22"/>
-      <c r="S152"/>
-      <c r="T152"/>
-    </row>
-    <row r="153" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="41"/>
       <c r="B153" s="10"/>
       <c r="C153" s="25"/>
@@ -4332,12 +4070,10 @@
       <c r="P153" s="10"/>
       <c r="Q153" s="11"/>
       <c r="R153" s="12"/>
-      <c r="S153"/>
-      <c r="T153"/>
-    </row>
-    <row r="154" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="40" t="s">
-        <v>26</v>
+    </row>
+    <row r="154" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="23"/>
@@ -4356,10 +4092,8 @@
       <c r="P154" s="7"/>
       <c r="Q154" s="8"/>
       <c r="R154" s="9"/>
-      <c r="S154"/>
-      <c r="T154"/>
-    </row>
-    <row r="155" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="41"/>
       <c r="B155" s="20"/>
       <c r="C155" s="29"/>
@@ -4378,10 +4112,8 @@
       <c r="P155" s="20"/>
       <c r="Q155" s="21"/>
       <c r="R155" s="22"/>
-      <c r="S155"/>
-      <c r="T155"/>
-    </row>
-    <row r="156" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="41"/>
       <c r="B156" s="20"/>
       <c r="C156" s="29"/>
@@ -4400,10 +4132,8 @@
       <c r="P156" s="20"/>
       <c r="Q156" s="21"/>
       <c r="R156" s="22"/>
-      <c r="S156"/>
-      <c r="T156"/>
-    </row>
-    <row r="157" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="41"/>
       <c r="B157" s="20"/>
       <c r="C157" s="29"/>
@@ -4422,10 +4152,8 @@
       <c r="P157" s="20"/>
       <c r="Q157" s="21"/>
       <c r="R157" s="22"/>
-      <c r="S157"/>
-      <c r="T157"/>
-    </row>
-    <row r="158" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="41"/>
       <c r="B158" s="20"/>
       <c r="C158" s="29"/>
@@ -4444,10 +4172,8 @@
       <c r="P158" s="20"/>
       <c r="Q158" s="21"/>
       <c r="R158" s="22"/>
-      <c r="S158"/>
-      <c r="T158"/>
-    </row>
-    <row r="159" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="41"/>
       <c r="B159" s="20"/>
       <c r="C159" s="29"/>
@@ -4466,10 +4192,8 @@
       <c r="P159" s="20"/>
       <c r="Q159" s="21"/>
       <c r="R159" s="22"/>
-      <c r="S159"/>
-      <c r="T159"/>
-    </row>
-    <row r="160" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="41"/>
       <c r="B160" s="20"/>
       <c r="C160" s="29"/>
@@ -4488,10 +4212,8 @@
       <c r="P160" s="20"/>
       <c r="Q160" s="21"/>
       <c r="R160" s="22"/>
-      <c r="S160"/>
-      <c r="T160"/>
-    </row>
-    <row r="161" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="41"/>
       <c r="B161" s="20"/>
       <c r="C161" s="29"/>
@@ -4510,10 +4232,8 @@
       <c r="P161" s="20"/>
       <c r="Q161" s="21"/>
       <c r="R161" s="22"/>
-      <c r="S161"/>
-      <c r="T161"/>
-    </row>
-    <row r="162" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="41"/>
       <c r="B162" s="20"/>
       <c r="C162" s="29"/>
@@ -4532,10 +4252,8 @@
       <c r="P162" s="20"/>
       <c r="Q162" s="21"/>
       <c r="R162" s="22"/>
-      <c r="S162"/>
-      <c r="T162"/>
-    </row>
-    <row r="163" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="41"/>
       <c r="B163" s="10"/>
       <c r="C163" s="25"/>
@@ -4554,12 +4272,10 @@
       <c r="P163" s="10"/>
       <c r="Q163" s="11"/>
       <c r="R163" s="12"/>
-      <c r="S163"/>
-      <c r="T163"/>
-    </row>
-    <row r="164" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="40" t="s">
-        <v>27</v>
+    </row>
+    <row r="164" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="23"/>
@@ -4578,10 +4294,8 @@
       <c r="P164" s="7"/>
       <c r="Q164" s="8"/>
       <c r="R164" s="9"/>
-      <c r="S164"/>
-      <c r="T164"/>
-    </row>
-    <row r="165" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="41"/>
       <c r="B165" s="20"/>
       <c r="C165" s="29"/>
@@ -4600,10 +4314,8 @@
       <c r="P165" s="20"/>
       <c r="Q165" s="21"/>
       <c r="R165" s="22"/>
-      <c r="S165"/>
-      <c r="T165"/>
-    </row>
-    <row r="166" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="41"/>
       <c r="B166" s="20"/>
       <c r="C166" s="29"/>
@@ -4622,10 +4334,8 @@
       <c r="P166" s="20"/>
       <c r="Q166" s="21"/>
       <c r="R166" s="22"/>
-      <c r="S166"/>
-      <c r="T166"/>
-    </row>
-    <row r="167" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="167" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="41"/>
       <c r="B167" s="20"/>
       <c r="C167" s="29"/>
@@ -4644,10 +4354,8 @@
       <c r="P167" s="20"/>
       <c r="Q167" s="21"/>
       <c r="R167" s="22"/>
-      <c r="S167"/>
-      <c r="T167"/>
-    </row>
-    <row r="168" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="168" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="41"/>
       <c r="B168" s="20"/>
       <c r="C168" s="29"/>
@@ -4666,10 +4374,8 @@
       <c r="P168" s="20"/>
       <c r="Q168" s="21"/>
       <c r="R168" s="22"/>
-      <c r="S168"/>
-      <c r="T168"/>
-    </row>
-    <row r="169" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="169" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="41"/>
       <c r="B169" s="20"/>
       <c r="C169" s="29"/>
@@ -4688,10 +4394,8 @@
       <c r="P169" s="20"/>
       <c r="Q169" s="21"/>
       <c r="R169" s="22"/>
-      <c r="S169"/>
-      <c r="T169"/>
-    </row>
-    <row r="170" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="170" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="29"/>
@@ -4710,10 +4414,8 @@
       <c r="P170" s="20"/>
       <c r="Q170" s="21"/>
       <c r="R170" s="22"/>
-      <c r="S170"/>
-      <c r="T170"/>
-    </row>
-    <row r="171" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="171" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="29"/>
@@ -4732,10 +4434,8 @@
       <c r="P171" s="20"/>
       <c r="Q171" s="21"/>
       <c r="R171" s="22"/>
-      <c r="S171"/>
-      <c r="T171"/>
-    </row>
-    <row r="172" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="172" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="29"/>
@@ -4754,10 +4454,8 @@
       <c r="P172" s="20"/>
       <c r="Q172" s="21"/>
       <c r="R172" s="22"/>
-      <c r="S172"/>
-      <c r="T172"/>
-    </row>
-    <row r="173" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A173" s="41"/>
       <c r="B173" s="10"/>
       <c r="C173" s="25"/>
@@ -4776,12 +4474,10 @@
       <c r="P173" s="10"/>
       <c r="Q173" s="11"/>
       <c r="R173" s="12"/>
-      <c r="S173"/>
-      <c r="T173"/>
-    </row>
-    <row r="174" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="40" t="s">
-        <v>28</v>
+    </row>
+    <row r="174" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="23"/>
@@ -4800,10 +4496,8 @@
       <c r="P174" s="7"/>
       <c r="Q174" s="8"/>
       <c r="R174" s="9"/>
-      <c r="S174"/>
-      <c r="T174"/>
-    </row>
-    <row r="175" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="175" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="29"/>
@@ -4822,10 +4516,8 @@
       <c r="P175" s="20"/>
       <c r="Q175" s="21"/>
       <c r="R175" s="22"/>
-      <c r="S175"/>
-      <c r="T175"/>
-    </row>
-    <row r="176" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="176" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="29"/>
@@ -4844,10 +4536,8 @@
       <c r="P176" s="20"/>
       <c r="Q176" s="21"/>
       <c r="R176" s="22"/>
-      <c r="S176"/>
-      <c r="T176"/>
-    </row>
-    <row r="177" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="177" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="29"/>
@@ -4866,10 +4556,8 @@
       <c r="P177" s="20"/>
       <c r="Q177" s="21"/>
       <c r="R177" s="22"/>
-      <c r="S177"/>
-      <c r="T177"/>
-    </row>
-    <row r="178" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="178" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="29"/>
@@ -4888,10 +4576,8 @@
       <c r="P178" s="20"/>
       <c r="Q178" s="21"/>
       <c r="R178" s="22"/>
-      <c r="S178"/>
-      <c r="T178"/>
-    </row>
-    <row r="179" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="179" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="29"/>
@@ -4910,10 +4596,8 @@
       <c r="P179" s="20"/>
       <c r="Q179" s="21"/>
       <c r="R179" s="22"/>
-      <c r="S179"/>
-      <c r="T179"/>
-    </row>
-    <row r="180" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="180" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="29"/>
@@ -4932,10 +4616,8 @@
       <c r="P180" s="20"/>
       <c r="Q180" s="21"/>
       <c r="R180" s="22"/>
-      <c r="S180"/>
-      <c r="T180"/>
-    </row>
-    <row r="181" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="181" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="29"/>
@@ -4954,10 +4636,8 @@
       <c r="P181" s="20"/>
       <c r="Q181" s="21"/>
       <c r="R181" s="22"/>
-      <c r="S181"/>
-      <c r="T181"/>
-    </row>
-    <row r="182" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="182" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="29"/>
@@ -4976,10 +4656,8 @@
       <c r="P182" s="20"/>
       <c r="Q182" s="21"/>
       <c r="R182" s="22"/>
-      <c r="S182"/>
-      <c r="T182"/>
-    </row>
-    <row r="183" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A183" s="41"/>
       <c r="B183" s="10"/>
       <c r="C183" s="25"/>
@@ -4998,12 +4676,10 @@
       <c r="P183" s="10"/>
       <c r="Q183" s="11"/>
       <c r="R183" s="12"/>
-      <c r="S183"/>
-      <c r="T183"/>
-    </row>
-    <row r="184" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="40" t="s">
-        <v>29</v>
+    </row>
+    <row r="184" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="23"/>
@@ -5022,10 +4698,8 @@
       <c r="P184" s="7"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="9"/>
-      <c r="S184"/>
-      <c r="T184"/>
-    </row>
-    <row r="185" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="185" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="29"/>
@@ -5044,10 +4718,8 @@
       <c r="P185" s="20"/>
       <c r="Q185" s="21"/>
       <c r="R185" s="22"/>
-      <c r="S185"/>
-      <c r="T185"/>
-    </row>
-    <row r="186" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="186" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="29"/>
@@ -5066,10 +4738,8 @@
       <c r="P186" s="20"/>
       <c r="Q186" s="21"/>
       <c r="R186" s="22"/>
-      <c r="S186"/>
-      <c r="T186"/>
-    </row>
-    <row r="187" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="187" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="29"/>
@@ -5088,10 +4758,8 @@
       <c r="P187" s="20"/>
       <c r="Q187" s="21"/>
       <c r="R187" s="22"/>
-      <c r="S187"/>
-      <c r="T187"/>
-    </row>
-    <row r="188" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="188" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="29"/>
@@ -5110,10 +4778,8 @@
       <c r="P188" s="20"/>
       <c r="Q188" s="21"/>
       <c r="R188" s="22"/>
-      <c r="S188"/>
-      <c r="T188"/>
-    </row>
-    <row r="189" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="189" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="29"/>
@@ -5132,10 +4798,8 @@
       <c r="P189" s="20"/>
       <c r="Q189" s="21"/>
       <c r="R189" s="22"/>
-      <c r="S189"/>
-      <c r="T189"/>
-    </row>
-    <row r="190" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="190" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="29"/>
@@ -5154,10 +4818,8 @@
       <c r="P190" s="20"/>
       <c r="Q190" s="21"/>
       <c r="R190" s="22"/>
-      <c r="S190"/>
-      <c r="T190"/>
-    </row>
-    <row r="191" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="191" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="29"/>
@@ -5176,10 +4838,8 @@
       <c r="P191" s="20"/>
       <c r="Q191" s="21"/>
       <c r="R191" s="22"/>
-      <c r="S191"/>
-      <c r="T191"/>
-    </row>
-    <row r="192" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="192" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="29"/>
@@ -5198,10 +4858,8 @@
       <c r="P192" s="20"/>
       <c r="Q192" s="21"/>
       <c r="R192" s="22"/>
-      <c r="S192"/>
-      <c r="T192"/>
-    </row>
-    <row r="193" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A193" s="41"/>
       <c r="B193" s="10"/>
       <c r="C193" s="25"/>
@@ -5220,12 +4878,10 @@
       <c r="P193" s="10"/>
       <c r="Q193" s="11"/>
       <c r="R193" s="12"/>
-      <c r="S193"/>
-      <c r="T193"/>
-    </row>
-    <row r="194" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="40" t="s">
-        <v>30</v>
+    </row>
+    <row r="194" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="23"/>
@@ -5244,10 +4900,8 @@
       <c r="P194" s="7"/>
       <c r="Q194" s="8"/>
       <c r="R194" s="9"/>
-      <c r="S194"/>
-      <c r="T194"/>
-    </row>
-    <row r="195" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="195" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="29"/>
@@ -5266,10 +4920,8 @@
       <c r="P195" s="20"/>
       <c r="Q195" s="21"/>
       <c r="R195" s="22"/>
-      <c r="S195"/>
-      <c r="T195"/>
-    </row>
-    <row r="196" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="196" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="29"/>
@@ -5288,10 +4940,8 @@
       <c r="P196" s="20"/>
       <c r="Q196" s="21"/>
       <c r="R196" s="22"/>
-      <c r="S196"/>
-      <c r="T196"/>
-    </row>
-    <row r="197" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="197" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="29"/>
@@ -5310,10 +4960,8 @@
       <c r="P197" s="20"/>
       <c r="Q197" s="21"/>
       <c r="R197" s="22"/>
-      <c r="S197"/>
-      <c r="T197"/>
-    </row>
-    <row r="198" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="198" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="29"/>
@@ -5332,10 +4980,8 @@
       <c r="P198" s="20"/>
       <c r="Q198" s="21"/>
       <c r="R198" s="22"/>
-      <c r="S198"/>
-      <c r="T198"/>
-    </row>
-    <row r="199" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="199" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="29"/>
@@ -5354,10 +5000,8 @@
       <c r="P199" s="20"/>
       <c r="Q199" s="21"/>
       <c r="R199" s="22"/>
-      <c r="S199"/>
-      <c r="T199"/>
-    </row>
-    <row r="200" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="200" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="41"/>
       <c r="B200" s="20"/>
       <c r="C200" s="29"/>
@@ -5376,10 +5020,8 @@
       <c r="P200" s="20"/>
       <c r="Q200" s="21"/>
       <c r="R200" s="22"/>
-      <c r="S200"/>
-      <c r="T200"/>
-    </row>
-    <row r="201" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="201" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="41"/>
       <c r="B201" s="20"/>
       <c r="C201" s="29"/>
@@ -5398,10 +5040,8 @@
       <c r="P201" s="20"/>
       <c r="Q201" s="21"/>
       <c r="R201" s="22"/>
-      <c r="S201"/>
-      <c r="T201"/>
-    </row>
-    <row r="202" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="202" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="41"/>
       <c r="B202" s="20"/>
       <c r="C202" s="29"/>
@@ -5420,10 +5060,8 @@
       <c r="P202" s="20"/>
       <c r="Q202" s="21"/>
       <c r="R202" s="22"/>
-      <c r="S202"/>
-      <c r="T202"/>
-    </row>
-    <row r="203" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A203" s="41"/>
       <c r="B203" s="10"/>
       <c r="C203" s="25"/>
@@ -5442,12 +5080,10 @@
       <c r="P203" s="10"/>
       <c r="Q203" s="11"/>
       <c r="R203" s="12"/>
-      <c r="S203"/>
-      <c r="T203"/>
-    </row>
-    <row r="204" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="40" t="s">
-        <v>31</v>
+    </row>
+    <row r="204" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="23"/>
@@ -5466,10 +5102,8 @@
       <c r="P204" s="7"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="9"/>
-      <c r="S204"/>
-      <c r="T204"/>
-    </row>
-    <row r="205" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="205" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="41"/>
       <c r="B205" s="20"/>
       <c r="C205" s="29"/>
@@ -5488,10 +5122,8 @@
       <c r="P205" s="20"/>
       <c r="Q205" s="21"/>
       <c r="R205" s="22"/>
-      <c r="S205"/>
-      <c r="T205"/>
-    </row>
-    <row r="206" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="206" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="41"/>
       <c r="B206" s="20"/>
       <c r="C206" s="29"/>
@@ -5510,10 +5142,8 @@
       <c r="P206" s="20"/>
       <c r="Q206" s="21"/>
       <c r="R206" s="22"/>
-      <c r="S206"/>
-      <c r="T206"/>
-    </row>
-    <row r="207" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="207" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="41"/>
       <c r="B207" s="20"/>
       <c r="C207" s="29"/>
@@ -5532,10 +5162,8 @@
       <c r="P207" s="20"/>
       <c r="Q207" s="21"/>
       <c r="R207" s="22"/>
-      <c r="S207"/>
-      <c r="T207"/>
-    </row>
-    <row r="208" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="208" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="41"/>
       <c r="B208" s="20"/>
       <c r="C208" s="29"/>
@@ -5554,10 +5182,8 @@
       <c r="P208" s="20"/>
       <c r="Q208" s="21"/>
       <c r="R208" s="22"/>
-      <c r="S208"/>
-      <c r="T208"/>
-    </row>
-    <row r="209" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="209" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="41"/>
       <c r="B209" s="20"/>
       <c r="C209" s="29"/>
@@ -5576,10 +5202,8 @@
       <c r="P209" s="20"/>
       <c r="Q209" s="21"/>
       <c r="R209" s="22"/>
-      <c r="S209"/>
-      <c r="T209"/>
-    </row>
-    <row r="210" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="210" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="41"/>
       <c r="B210" s="20"/>
       <c r="C210" s="29"/>
@@ -5598,10 +5222,8 @@
       <c r="P210" s="20"/>
       <c r="Q210" s="21"/>
       <c r="R210" s="22"/>
-      <c r="S210"/>
-      <c r="T210"/>
-    </row>
-    <row r="211" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="211" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="41"/>
       <c r="B211" s="20"/>
       <c r="C211" s="29"/>
@@ -5620,10 +5242,8 @@
       <c r="P211" s="20"/>
       <c r="Q211" s="21"/>
       <c r="R211" s="22"/>
-      <c r="S211"/>
-      <c r="T211"/>
-    </row>
-    <row r="212" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="212" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="41"/>
       <c r="B212" s="20"/>
       <c r="C212" s="29"/>
@@ -5642,10 +5262,8 @@
       <c r="P212" s="20"/>
       <c r="Q212" s="21"/>
       <c r="R212" s="22"/>
-      <c r="S212"/>
-      <c r="T212"/>
-    </row>
-    <row r="213" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A213" s="41"/>
       <c r="B213" s="10"/>
       <c r="C213" s="25"/>
@@ -5664,12 +5282,10 @@
       <c r="P213" s="10"/>
       <c r="Q213" s="11"/>
       <c r="R213" s="12"/>
-      <c r="S213"/>
-      <c r="T213"/>
-    </row>
-    <row r="214" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="40" t="s">
-        <v>32</v>
+    </row>
+    <row r="214" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="23"/>
@@ -5688,10 +5304,8 @@
       <c r="P214" s="7"/>
       <c r="Q214" s="8"/>
       <c r="R214" s="9"/>
-      <c r="S214"/>
-      <c r="T214"/>
-    </row>
-    <row r="215" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="215" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="41"/>
       <c r="B215" s="20"/>
       <c r="C215" s="29"/>
@@ -5710,10 +5324,8 @@
       <c r="P215" s="20"/>
       <c r="Q215" s="21"/>
       <c r="R215" s="22"/>
-      <c r="S215"/>
-      <c r="T215"/>
-    </row>
-    <row r="216" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="216" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="41"/>
       <c r="B216" s="20"/>
       <c r="C216" s="29"/>
@@ -5732,10 +5344,8 @@
       <c r="P216" s="20"/>
       <c r="Q216" s="21"/>
       <c r="R216" s="22"/>
-      <c r="S216"/>
-      <c r="T216"/>
-    </row>
-    <row r="217" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="217" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="41"/>
       <c r="B217" s="20"/>
       <c r="C217" s="29"/>
@@ -5754,10 +5364,8 @@
       <c r="P217" s="20"/>
       <c r="Q217" s="21"/>
       <c r="R217" s="22"/>
-      <c r="S217"/>
-      <c r="T217"/>
-    </row>
-    <row r="218" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="218" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="41"/>
       <c r="B218" s="20"/>
       <c r="C218" s="29"/>
@@ -5776,10 +5384,8 @@
       <c r="P218" s="20"/>
       <c r="Q218" s="21"/>
       <c r="R218" s="22"/>
-      <c r="S218"/>
-      <c r="T218"/>
-    </row>
-    <row r="219" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="219" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="41"/>
       <c r="B219" s="20"/>
       <c r="C219" s="29"/>
@@ -5798,10 +5404,8 @@
       <c r="P219" s="20"/>
       <c r="Q219" s="21"/>
       <c r="R219" s="22"/>
-      <c r="S219"/>
-      <c r="T219"/>
-    </row>
-    <row r="220" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="220" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="41"/>
       <c r="B220" s="20"/>
       <c r="C220" s="29"/>
@@ -5820,10 +5424,8 @@
       <c r="P220" s="20"/>
       <c r="Q220" s="21"/>
       <c r="R220" s="22"/>
-      <c r="S220"/>
-      <c r="T220"/>
-    </row>
-    <row r="221" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="221" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="41"/>
       <c r="B221" s="20"/>
       <c r="C221" s="29"/>
@@ -5842,10 +5444,8 @@
       <c r="P221" s="20"/>
       <c r="Q221" s="21"/>
       <c r="R221" s="22"/>
-      <c r="S221"/>
-      <c r="T221"/>
-    </row>
-    <row r="222" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="222" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="41"/>
       <c r="B222" s="20"/>
       <c r="C222" s="29"/>
@@ -5864,10 +5464,8 @@
       <c r="P222" s="20"/>
       <c r="Q222" s="21"/>
       <c r="R222" s="22"/>
-      <c r="S222"/>
-      <c r="T222"/>
-    </row>
-    <row r="223" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A223" s="41"/>
       <c r="B223" s="10"/>
       <c r="C223" s="25"/>
@@ -5886,12 +5484,10 @@
       <c r="P223" s="10"/>
       <c r="Q223" s="11"/>
       <c r="R223" s="12"/>
-      <c r="S223"/>
-      <c r="T223"/>
-    </row>
-    <row r="224" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="40" t="s">
-        <v>33</v>
+    </row>
+    <row r="224" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="23"/>
@@ -5910,10 +5506,8 @@
       <c r="P224" s="7"/>
       <c r="Q224" s="8"/>
       <c r="R224" s="9"/>
-      <c r="S224"/>
-      <c r="T224"/>
-    </row>
-    <row r="225" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="225" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="41"/>
       <c r="B225" s="20"/>
       <c r="C225" s="29"/>
@@ -5932,10 +5526,8 @@
       <c r="P225" s="20"/>
       <c r="Q225" s="21"/>
       <c r="R225" s="22"/>
-      <c r="S225"/>
-      <c r="T225"/>
-    </row>
-    <row r="226" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="226" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="41"/>
       <c r="B226" s="20"/>
       <c r="C226" s="29"/>
@@ -5954,10 +5546,8 @@
       <c r="P226" s="20"/>
       <c r="Q226" s="21"/>
       <c r="R226" s="22"/>
-      <c r="S226"/>
-      <c r="T226"/>
-    </row>
-    <row r="227" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="227" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="41"/>
       <c r="B227" s="20"/>
       <c r="C227" s="29"/>
@@ -5976,10 +5566,8 @@
       <c r="P227" s="20"/>
       <c r="Q227" s="21"/>
       <c r="R227" s="22"/>
-      <c r="S227"/>
-      <c r="T227"/>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A228" s="41"/>
       <c r="B228" s="20"/>
       <c r="C228" s="29"/>
@@ -5998,10 +5586,8 @@
       <c r="P228" s="20"/>
       <c r="Q228" s="21"/>
       <c r="R228" s="22"/>
-      <c r="S228"/>
-      <c r="T228"/>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A229" s="41"/>
       <c r="B229" s="20"/>
       <c r="C229" s="29"/>
@@ -6020,10 +5606,8 @@
       <c r="P229" s="20"/>
       <c r="Q229" s="21"/>
       <c r="R229" s="22"/>
-      <c r="S229"/>
-      <c r="T229"/>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A230" s="41"/>
       <c r="B230" s="20"/>
       <c r="C230" s="29"/>
@@ -6042,10 +5626,8 @@
       <c r="P230" s="20"/>
       <c r="Q230" s="21"/>
       <c r="R230" s="22"/>
-      <c r="S230"/>
-      <c r="T230"/>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A231" s="41"/>
       <c r="B231" s="20"/>
       <c r="C231" s="29"/>
@@ -6064,10 +5646,8 @@
       <c r="P231" s="20"/>
       <c r="Q231" s="21"/>
       <c r="R231" s="22"/>
-      <c r="S231"/>
-      <c r="T231"/>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A232" s="41"/>
       <c r="B232" s="20"/>
       <c r="C232" s="29"/>
@@ -6086,10 +5666,8 @@
       <c r="P232" s="20"/>
       <c r="Q232" s="21"/>
       <c r="R232" s="22"/>
-      <c r="S232"/>
-      <c r="T232"/>
-    </row>
-    <row r="233" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A233" s="41"/>
       <c r="B233" s="10"/>
       <c r="C233" s="25"/>
@@ -6108,12 +5686,10 @@
       <c r="P233" s="10"/>
       <c r="Q233" s="11"/>
       <c r="R233" s="12"/>
-      <c r="S233"/>
-      <c r="T233"/>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A234" s="40" t="s">
-        <v>34</v>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A234" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="23"/>
@@ -6132,10 +5708,8 @@
       <c r="P234" s="7"/>
       <c r="Q234" s="8"/>
       <c r="R234" s="9"/>
-      <c r="S234"/>
-      <c r="T234"/>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A235" s="41"/>
       <c r="B235" s="20"/>
       <c r="C235" s="29"/>
@@ -6154,10 +5728,8 @@
       <c r="P235" s="20"/>
       <c r="Q235" s="21"/>
       <c r="R235" s="22"/>
-      <c r="S235"/>
-      <c r="T235"/>
-    </row>
-    <row r="236" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A236" s="41"/>
       <c r="B236" s="10"/>
       <c r="C236" s="25"/>
@@ -6176,12 +5748,10 @@
       <c r="P236" s="10"/>
       <c r="Q236" s="11"/>
       <c r="R236" s="12"/>
-      <c r="S236"/>
-      <c r="T236"/>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A237" s="40" t="s">
-        <v>35</v>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A237" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="23"/>
@@ -6200,10 +5770,8 @@
       <c r="P237" s="7"/>
       <c r="Q237" s="8"/>
       <c r="R237" s="9"/>
-      <c r="S237"/>
-      <c r="T237"/>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A238" s="41"/>
       <c r="B238" s="20"/>
       <c r="C238" s="29"/>
@@ -6222,10 +5790,8 @@
       <c r="P238" s="20"/>
       <c r="Q238" s="21"/>
       <c r="R238" s="22"/>
-      <c r="S238"/>
-      <c r="T238"/>
-    </row>
-    <row r="239" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A239" s="41"/>
       <c r="B239" s="10"/>
       <c r="C239" s="25"/>
@@ -6244,12 +5810,10 @@
       <c r="P239" s="10"/>
       <c r="Q239" s="11"/>
       <c r="R239" s="12"/>
-      <c r="S239"/>
-      <c r="T239"/>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A240" s="40" t="s">
-        <v>36</v>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A240" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="23"/>
@@ -6268,10 +5832,8 @@
       <c r="P240" s="7"/>
       <c r="Q240" s="8"/>
       <c r="R240" s="9"/>
-      <c r="S240"/>
-      <c r="T240"/>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A241" s="41"/>
       <c r="B241" s="20"/>
       <c r="C241" s="29"/>
@@ -6290,10 +5852,8 @@
       <c r="P241" s="20"/>
       <c r="Q241" s="21"/>
       <c r="R241" s="22"/>
-      <c r="S241"/>
-      <c r="T241"/>
-    </row>
-    <row r="242" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A242" s="41"/>
       <c r="B242" s="10"/>
       <c r="C242" s="25"/>
@@ -6312,12 +5872,10 @@
       <c r="P242" s="10"/>
       <c r="Q242" s="11"/>
       <c r="R242" s="12"/>
-      <c r="S242"/>
-      <c r="T242"/>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A243" s="40" t="s">
-        <v>37</v>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A243" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="23"/>
@@ -6336,10 +5894,8 @@
       <c r="P243" s="7"/>
       <c r="Q243" s="8"/>
       <c r="R243" s="9"/>
-      <c r="S243"/>
-      <c r="T243"/>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A244" s="41"/>
       <c r="B244" s="20"/>
       <c r="C244" s="29"/>
@@ -6358,10 +5914,8 @@
       <c r="P244" s="20"/>
       <c r="Q244" s="21"/>
       <c r="R244" s="22"/>
-      <c r="S244"/>
-      <c r="T244"/>
-    </row>
-    <row r="245" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A245" s="41"/>
       <c r="B245" s="10"/>
       <c r="C245" s="25"/>
@@ -6380,12 +5934,10 @@
       <c r="P245" s="10"/>
       <c r="Q245" s="11"/>
       <c r="R245" s="12"/>
-      <c r="S245"/>
-      <c r="T245"/>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A246" s="40" t="s">
-        <v>38</v>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A246" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="23"/>
@@ -6404,10 +5956,8 @@
       <c r="P246" s="7"/>
       <c r="Q246" s="8"/>
       <c r="R246" s="9"/>
-      <c r="S246"/>
-      <c r="T246"/>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A247" s="41"/>
       <c r="B247" s="20"/>
       <c r="C247" s="29"/>
@@ -6426,10 +5976,8 @@
       <c r="P247" s="20"/>
       <c r="Q247" s="21"/>
       <c r="R247" s="22"/>
-      <c r="S247"/>
-      <c r="T247"/>
-    </row>
-    <row r="248" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A248" s="41"/>
       <c r="B248" s="10"/>
       <c r="C248" s="25"/>
@@ -6448,12 +5996,10 @@
       <c r="P248" s="10"/>
       <c r="Q248" s="11"/>
       <c r="R248" s="12"/>
-      <c r="S248"/>
-      <c r="T248"/>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A249" s="40" t="s">
-        <v>39</v>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A249" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="23"/>
@@ -6472,10 +6018,8 @@
       <c r="P249" s="7"/>
       <c r="Q249" s="8"/>
       <c r="R249" s="9"/>
-      <c r="S249"/>
-      <c r="T249"/>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A250" s="41"/>
       <c r="B250" s="20"/>
       <c r="C250" s="29"/>
@@ -6494,10 +6038,8 @@
       <c r="P250" s="20"/>
       <c r="Q250" s="21"/>
       <c r="R250" s="22"/>
-      <c r="S250"/>
-      <c r="T250"/>
-    </row>
-    <row r="251" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A251" s="41"/>
       <c r="B251" s="10"/>
       <c r="C251" s="25"/>
@@ -6516,12 +6058,10 @@
       <c r="P251" s="10"/>
       <c r="Q251" s="11"/>
       <c r="R251" s="12"/>
-      <c r="S251"/>
-      <c r="T251"/>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A252" s="40" t="s">
-        <v>40</v>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A252" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="23"/>
@@ -6540,10 +6080,8 @@
       <c r="P252" s="7"/>
       <c r="Q252" s="8"/>
       <c r="R252" s="9"/>
-      <c r="S252"/>
-      <c r="T252"/>
-    </row>
-    <row r="253" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A253" s="41"/>
       <c r="B253" s="10"/>
       <c r="C253" s="25"/>
@@ -6562,12 +6100,10 @@
       <c r="P253" s="10"/>
       <c r="Q253" s="11"/>
       <c r="R253" s="12"/>
-      <c r="S253"/>
-      <c r="T253"/>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A254" s="40" t="s">
-        <v>41</v>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A254" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="23"/>
@@ -6586,10 +6122,8 @@
       <c r="P254" s="7"/>
       <c r="Q254" s="8"/>
       <c r="R254" s="9"/>
-      <c r="S254"/>
-      <c r="T254"/>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A255" s="41"/>
       <c r="B255" s="20"/>
       <c r="C255" s="29"/>
@@ -6608,10 +6142,8 @@
       <c r="P255" s="20"/>
       <c r="Q255" s="21"/>
       <c r="R255" s="22"/>
-      <c r="S255"/>
-      <c r="T255"/>
-    </row>
-    <row r="256" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A256" s="41"/>
       <c r="B256" s="10"/>
       <c r="C256" s="25"/>
@@ -6630,12 +6162,10 @@
       <c r="P256" s="10"/>
       <c r="Q256" s="11"/>
       <c r="R256" s="12"/>
-      <c r="S256"/>
-      <c r="T256"/>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A257" s="40" t="s">
-        <v>42</v>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A257" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="23"/>
@@ -6654,10 +6184,8 @@
       <c r="P257" s="7"/>
       <c r="Q257" s="8"/>
       <c r="R257" s="9"/>
-      <c r="S257"/>
-      <c r="T257"/>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A258" s="41"/>
       <c r="B258" s="20"/>
       <c r="C258" s="29"/>
@@ -6676,10 +6204,8 @@
       <c r="P258" s="20"/>
       <c r="Q258" s="21"/>
       <c r="R258" s="22"/>
-      <c r="S258"/>
-      <c r="T258"/>
-    </row>
-    <row r="259" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A259" s="41"/>
       <c r="B259" s="10"/>
       <c r="C259" s="25"/>
@@ -6698,12 +6224,10 @@
       <c r="P259" s="10"/>
       <c r="Q259" s="11"/>
       <c r="R259" s="12"/>
-      <c r="S259"/>
-      <c r="T259"/>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A260" s="40" t="s">
-        <v>40</v>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A260" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="23"/>
@@ -6722,10 +6246,8 @@
       <c r="P260" s="7"/>
       <c r="Q260" s="8"/>
       <c r="R260" s="9"/>
-      <c r="S260"/>
-      <c r="T260"/>
-    </row>
-    <row r="261" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A261" s="41"/>
       <c r="B261" s="10"/>
       <c r="C261" s="25"/>
@@ -6744,12 +6266,10 @@
       <c r="P261" s="10"/>
       <c r="Q261" s="11"/>
       <c r="R261" s="12"/>
-      <c r="S261"/>
-      <c r="T261"/>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A262" s="40" t="s">
-        <v>43</v>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A262" s="42" t="s">
+        <v>49</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="23"/>
@@ -6768,10 +6288,8 @@
       <c r="P262" s="7"/>
       <c r="Q262" s="8"/>
       <c r="R262" s="9"/>
-      <c r="S262"/>
-      <c r="T262"/>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A263" s="41"/>
       <c r="B263" s="20"/>
       <c r="C263" s="29"/>
@@ -6790,10 +6308,8 @@
       <c r="P263" s="20"/>
       <c r="Q263" s="21"/>
       <c r="R263" s="22"/>
-      <c r="S263"/>
-      <c r="T263"/>
-    </row>
-    <row r="264" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A264" s="41"/>
       <c r="B264" s="10"/>
       <c r="C264" s="25"/>
@@ -6812,12 +6328,10 @@
       <c r="P264" s="10"/>
       <c r="Q264" s="11"/>
       <c r="R264" s="12"/>
-      <c r="S264"/>
-      <c r="T264"/>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A265" s="40" t="s">
-        <v>44</v>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A265" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="23"/>
@@ -6836,10 +6350,8 @@
       <c r="P265" s="7"/>
       <c r="Q265" s="8"/>
       <c r="R265" s="9"/>
-      <c r="S265"/>
-      <c r="T265"/>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A266" s="41"/>
       <c r="B266" s="20"/>
       <c r="C266" s="29"/>
@@ -6858,10 +6370,8 @@
       <c r="P266" s="20"/>
       <c r="Q266" s="21"/>
       <c r="R266" s="22"/>
-      <c r="S266"/>
-      <c r="T266"/>
-    </row>
-    <row r="267" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A267" s="41"/>
       <c r="B267" s="10"/>
       <c r="C267" s="25"/>
@@ -6880,12 +6390,10 @@
       <c r="P267" s="10"/>
       <c r="Q267" s="11"/>
       <c r="R267" s="12"/>
-      <c r="S267"/>
-      <c r="T267"/>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A268" s="40" t="s">
-        <v>45</v>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A268" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="23"/>
@@ -6904,10 +6412,8 @@
       <c r="P268" s="7"/>
       <c r="Q268" s="8"/>
       <c r="R268" s="9"/>
-      <c r="S268"/>
-      <c r="T268"/>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A269" s="41"/>
       <c r="B269" s="20"/>
       <c r="C269" s="29"/>
@@ -6926,10 +6432,8 @@
       <c r="P269" s="20"/>
       <c r="Q269" s="21"/>
       <c r="R269" s="22"/>
-      <c r="S269"/>
-      <c r="T269"/>
-    </row>
-    <row r="270" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A270" s="41"/>
       <c r="B270" s="10"/>
       <c r="C270" s="25"/>
@@ -6948,12 +6452,10 @@
       <c r="P270" s="10"/>
       <c r="Q270" s="11"/>
       <c r="R270" s="12"/>
-      <c r="S270"/>
-      <c r="T270"/>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A271" s="40" t="s">
-        <v>46</v>
+    </row>
+    <row r="271" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="23"/>
@@ -6972,10 +6474,8 @@
       <c r="P271" s="7"/>
       <c r="Q271" s="8"/>
       <c r="R271" s="9"/>
-      <c r="S271"/>
-      <c r="T271"/>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="272" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="41"/>
       <c r="B272" s="20"/>
       <c r="C272" s="29"/>
@@ -6994,324 +6494,296 @@
       <c r="P272" s="20"/>
       <c r="Q272" s="21"/>
       <c r="R272" s="22"/>
-      <c r="S272"/>
-      <c r="T272"/>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="273" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A273" s="41"/>
-      <c r="B273" s="31"/>
-      <c r="C273" s="32"/>
-      <c r="D273" s="32"/>
-      <c r="E273" s="32"/>
-      <c r="F273" s="33"/>
-      <c r="G273" s="31"/>
-      <c r="H273" s="31"/>
-      <c r="I273" s="31"/>
-      <c r="J273" s="31"/>
-      <c r="K273" s="31"/>
-      <c r="L273" s="31"/>
-      <c r="M273" s="31"/>
-      <c r="N273" s="31"/>
-      <c r="O273" s="31"/>
-      <c r="P273" s="31"/>
-      <c r="Q273" s="34"/>
-      <c r="R273" s="35"/>
-      <c r="S273"/>
-      <c r="T273"/>
-    </row>
-    <row r="274" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="41"/>
-      <c r="B274" s="10"/>
-      <c r="C274" s="25"/>
-      <c r="D274" s="25"/>
-      <c r="E274" s="25"/>
-      <c r="F274" s="26"/>
-      <c r="G274" s="10"/>
-      <c r="H274" s="10"/>
-      <c r="I274" s="10"/>
-      <c r="J274" s="10"/>
-      <c r="K274" s="10"/>
-      <c r="L274" s="10"/>
-      <c r="M274" s="10"/>
-      <c r="N274" s="10"/>
-      <c r="O274" s="10"/>
-      <c r="P274" s="10"/>
-      <c r="Q274" s="11"/>
-      <c r="R274" s="12"/>
-      <c r="S274"/>
-      <c r="T274"/>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A275" s="40" t="s">
-        <v>47</v>
+      <c r="B273" s="10"/>
+      <c r="C273" s="25"/>
+      <c r="D273" s="25"/>
+      <c r="E273" s="25"/>
+      <c r="F273" s="26"/>
+      <c r="G273" s="10"/>
+      <c r="H273" s="10"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="10"/>
+      <c r="K273" s="10"/>
+      <c r="L273" s="10"/>
+      <c r="M273" s="10"/>
+      <c r="N273" s="10"/>
+      <c r="O273" s="10"/>
+      <c r="P273" s="10"/>
+      <c r="Q273" s="11"/>
+      <c r="R273" s="12"/>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A274" s="42" t="s">
+        <v>52</v>
       </c>
-      <c r="B275" s="7"/>
-      <c r="C275" s="23"/>
-      <c r="D275" s="23"/>
-      <c r="E275" s="23"/>
-      <c r="F275" s="24"/>
-      <c r="G275" s="7"/>
-      <c r="H275" s="7"/>
-      <c r="I275" s="7"/>
-      <c r="J275" s="7"/>
-      <c r="K275" s="7"/>
-      <c r="L275" s="7"/>
-      <c r="M275" s="7"/>
-      <c r="N275" s="7"/>
-      <c r="O275" s="7"/>
-      <c r="P275" s="7"/>
-      <c r="Q275" s="8"/>
-      <c r="R275" s="9"/>
-      <c r="S275"/>
-      <c r="T275"/>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B274" s="7"/>
+      <c r="C274" s="23"/>
+      <c r="D274" s="23"/>
+      <c r="E274" s="23"/>
+      <c r="F274" s="24"/>
+      <c r="G274" s="7"/>
+      <c r="H274" s="7"/>
+      <c r="I274" s="7"/>
+      <c r="J274" s="7"/>
+      <c r="K274" s="7"/>
+      <c r="L274" s="7"/>
+      <c r="M274" s="7"/>
+      <c r="N274" s="7"/>
+      <c r="O274" s="7"/>
+      <c r="P274" s="7"/>
+      <c r="Q274" s="8"/>
+      <c r="R274" s="9"/>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A275" s="41"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="29"/>
+      <c r="D275" s="29"/>
+      <c r="E275" s="29"/>
+      <c r="F275" s="30"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="20"/>
+      <c r="I275" s="20"/>
+      <c r="J275" s="20"/>
+      <c r="K275" s="20"/>
+      <c r="L275" s="20"/>
+      <c r="M275" s="20"/>
+      <c r="N275" s="20"/>
+      <c r="O275" s="20"/>
+      <c r="P275" s="20"/>
+      <c r="Q275" s="21"/>
+      <c r="R275" s="22"/>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A276" s="41"/>
-      <c r="B276" s="20"/>
-      <c r="C276" s="29"/>
-      <c r="D276" s="29"/>
-      <c r="E276" s="29"/>
-      <c r="F276" s="30"/>
-      <c r="G276" s="20"/>
-      <c r="H276" s="20"/>
-      <c r="I276" s="20"/>
-      <c r="J276" s="20"/>
-      <c r="K276" s="20"/>
-      <c r="L276" s="20"/>
-      <c r="M276" s="20"/>
-      <c r="N276" s="20"/>
-      <c r="O276" s="20"/>
-      <c r="P276" s="20"/>
-      <c r="Q276" s="21"/>
-      <c r="R276" s="22"/>
-      <c r="S276"/>
-      <c r="T276"/>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B276" s="31"/>
+      <c r="C276" s="32"/>
+      <c r="D276" s="32"/>
+      <c r="E276" s="32"/>
+      <c r="F276" s="33"/>
+      <c r="G276" s="31"/>
+      <c r="H276" s="31"/>
+      <c r="I276" s="31"/>
+      <c r="J276" s="31"/>
+      <c r="K276" s="31"/>
+      <c r="L276" s="31"/>
+      <c r="M276" s="31"/>
+      <c r="N276" s="31"/>
+      <c r="O276" s="31"/>
+      <c r="P276" s="31"/>
+      <c r="Q276" s="34"/>
+      <c r="R276" s="35"/>
+    </row>
+    <row r="277" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A277" s="41"/>
-      <c r="B277" s="31"/>
-      <c r="C277" s="32"/>
-      <c r="D277" s="32"/>
-      <c r="E277" s="32"/>
-      <c r="F277" s="33"/>
-      <c r="G277" s="31"/>
-      <c r="H277" s="31"/>
-      <c r="I277" s="31"/>
-      <c r="J277" s="31"/>
-      <c r="K277" s="31"/>
-      <c r="L277" s="31"/>
-      <c r="M277" s="31"/>
-      <c r="N277" s="31"/>
-      <c r="O277" s="31"/>
-      <c r="P277" s="31"/>
-      <c r="Q277" s="34"/>
-      <c r="R277" s="35"/>
-      <c r="S277"/>
-      <c r="T277"/>
-    </row>
-    <row r="278" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="41"/>
-      <c r="B278" s="10"/>
-      <c r="C278" s="25"/>
-      <c r="D278" s="25"/>
-      <c r="E278" s="25"/>
-      <c r="F278" s="26"/>
-      <c r="G278" s="10"/>
-      <c r="H278" s="10"/>
-      <c r="I278" s="10"/>
-      <c r="J278" s="10"/>
-      <c r="K278" s="10"/>
-      <c r="L278" s="10"/>
-      <c r="M278" s="10"/>
-      <c r="N278" s="10"/>
-      <c r="O278" s="10"/>
-      <c r="P278" s="10"/>
-      <c r="Q278" s="11"/>
-      <c r="R278" s="12"/>
-      <c r="S278"/>
-      <c r="T278"/>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A279" s="40" t="s">
-        <v>48</v>
+      <c r="B277" s="10"/>
+      <c r="C277" s="25"/>
+      <c r="D277" s="25"/>
+      <c r="E277" s="25"/>
+      <c r="F277" s="26"/>
+      <c r="G277" s="10"/>
+      <c r="H277" s="10"/>
+      <c r="I277" s="10"/>
+      <c r="J277" s="10"/>
+      <c r="K277" s="10"/>
+      <c r="L277" s="10"/>
+      <c r="M277" s="10"/>
+      <c r="N277" s="10"/>
+      <c r="O277" s="10"/>
+      <c r="P277" s="10"/>
+      <c r="Q277" s="11"/>
+      <c r="R277" s="12"/>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A278" s="42" t="s">
+        <v>53</v>
       </c>
-      <c r="B279" s="7"/>
-      <c r="C279" s="23"/>
-      <c r="D279" s="23"/>
-      <c r="E279" s="23"/>
-      <c r="F279" s="24"/>
-      <c r="G279" s="7"/>
-      <c r="H279" s="7"/>
-      <c r="I279" s="7"/>
-      <c r="J279" s="7"/>
-      <c r="K279" s="7"/>
-      <c r="L279" s="7"/>
-      <c r="M279" s="7"/>
-      <c r="N279" s="7"/>
-      <c r="O279" s="7"/>
-      <c r="P279" s="7"/>
-      <c r="Q279" s="8"/>
-      <c r="R279" s="9"/>
-      <c r="S279"/>
-      <c r="T279"/>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B278" s="7"/>
+      <c r="C278" s="23"/>
+      <c r="D278" s="23"/>
+      <c r="E278" s="23"/>
+      <c r="F278" s="24"/>
+      <c r="G278" s="7"/>
+      <c r="H278" s="7"/>
+      <c r="I278" s="7"/>
+      <c r="J278" s="7"/>
+      <c r="K278" s="7"/>
+      <c r="L278" s="7"/>
+      <c r="M278" s="7"/>
+      <c r="N278" s="7"/>
+      <c r="O278" s="7"/>
+      <c r="P278" s="7"/>
+      <c r="Q278" s="8"/>
+      <c r="R278" s="9"/>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A279" s="41"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="29"/>
+      <c r="D279" s="29"/>
+      <c r="E279" s="29"/>
+      <c r="F279" s="30"/>
+      <c r="G279" s="20"/>
+      <c r="H279" s="20"/>
+      <c r="I279" s="20"/>
+      <c r="J279" s="20"/>
+      <c r="K279" s="20"/>
+      <c r="L279" s="20"/>
+      <c r="M279" s="20"/>
+      <c r="N279" s="20"/>
+      <c r="O279" s="20"/>
+      <c r="P279" s="20"/>
+      <c r="Q279" s="21"/>
+      <c r="R279" s="22"/>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A280" s="41"/>
-      <c r="B280" s="20"/>
-      <c r="C280" s="29"/>
-      <c r="D280" s="29"/>
-      <c r="E280" s="29"/>
-      <c r="F280" s="30"/>
-      <c r="G280" s="20"/>
-      <c r="H280" s="20"/>
-      <c r="I280" s="20"/>
-      <c r="J280" s="20"/>
-      <c r="K280" s="20"/>
-      <c r="L280" s="20"/>
-      <c r="M280" s="20"/>
-      <c r="N280" s="20"/>
-      <c r="O280" s="20"/>
-      <c r="P280" s="20"/>
-      <c r="Q280" s="21"/>
-      <c r="R280" s="22"/>
-      <c r="S280"/>
-      <c r="T280"/>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B280" s="31"/>
+      <c r="C280" s="32"/>
+      <c r="D280" s="32"/>
+      <c r="E280" s="32"/>
+      <c r="F280" s="33"/>
+      <c r="G280" s="31"/>
+      <c r="H280" s="31"/>
+      <c r="I280" s="31"/>
+      <c r="J280" s="31"/>
+      <c r="K280" s="31"/>
+      <c r="L280" s="31"/>
+      <c r="M280" s="31"/>
+      <c r="N280" s="31"/>
+      <c r="O280" s="31"/>
+      <c r="P280" s="31"/>
+      <c r="Q280" s="34"/>
+      <c r="R280" s="35"/>
+    </row>
+    <row r="281" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A281" s="41"/>
-      <c r="B281" s="31"/>
-      <c r="C281" s="32"/>
-      <c r="D281" s="32"/>
-      <c r="E281" s="32"/>
-      <c r="F281" s="33"/>
-      <c r="G281" s="31"/>
-      <c r="H281" s="31"/>
-      <c r="I281" s="31"/>
-      <c r="J281" s="31"/>
-      <c r="K281" s="31"/>
-      <c r="L281" s="31"/>
-      <c r="M281" s="31"/>
-      <c r="N281" s="31"/>
-      <c r="O281" s="31"/>
-      <c r="P281" s="31"/>
-      <c r="Q281" s="34"/>
-      <c r="R281" s="35"/>
-      <c r="S281"/>
-      <c r="T281"/>
-    </row>
-    <row r="282" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="41"/>
-      <c r="B282" s="10"/>
-      <c r="C282" s="25"/>
-      <c r="D282" s="25"/>
-      <c r="E282" s="25"/>
-      <c r="F282" s="26"/>
-      <c r="G282" s="10"/>
-      <c r="H282" s="10"/>
-      <c r="I282" s="10"/>
-      <c r="J282" s="10"/>
-      <c r="K282" s="10"/>
-      <c r="L282" s="10"/>
-      <c r="M282" s="10"/>
-      <c r="N282" s="10"/>
-      <c r="O282" s="10"/>
-      <c r="P282" s="10"/>
-      <c r="Q282" s="11"/>
-      <c r="R282" s="12"/>
-      <c r="S282"/>
-      <c r="T282"/>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A283" s="40" t="s">
-        <v>49</v>
+      <c r="B281" s="10"/>
+      <c r="C281" s="25"/>
+      <c r="D281" s="25"/>
+      <c r="E281" s="25"/>
+      <c r="F281" s="26"/>
+      <c r="G281" s="10"/>
+      <c r="H281" s="10"/>
+      <c r="I281" s="10"/>
+      <c r="J281" s="10"/>
+      <c r="K281" s="10"/>
+      <c r="L281" s="10"/>
+      <c r="M281" s="10"/>
+      <c r="N281" s="10"/>
+      <c r="O281" s="10"/>
+      <c r="P281" s="10"/>
+      <c r="Q281" s="11"/>
+      <c r="R281" s="12"/>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A282" s="42" t="s">
+        <v>54</v>
       </c>
-      <c r="B283" s="7"/>
-      <c r="C283" s="23"/>
-      <c r="D283" s="23"/>
-      <c r="E283" s="23"/>
-      <c r="F283" s="24"/>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7"/>
-      <c r="I283" s="7"/>
-      <c r="J283" s="7"/>
-      <c r="K283" s="7"/>
-      <c r="L283" s="7"/>
-      <c r="M283" s="7"/>
-      <c r="N283" s="7"/>
-      <c r="O283" s="7"/>
-      <c r="P283" s="7"/>
-      <c r="Q283" s="8"/>
-      <c r="R283" s="9"/>
-      <c r="S283"/>
-      <c r="T283"/>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B282" s="7"/>
+      <c r="C282" s="23"/>
+      <c r="D282" s="23"/>
+      <c r="E282" s="23"/>
+      <c r="F282" s="24"/>
+      <c r="G282" s="7"/>
+      <c r="H282" s="7"/>
+      <c r="I282" s="7"/>
+      <c r="J282" s="7"/>
+      <c r="K282" s="7"/>
+      <c r="L282" s="7"/>
+      <c r="M282" s="7"/>
+      <c r="N282" s="7"/>
+      <c r="O282" s="7"/>
+      <c r="P282" s="7"/>
+      <c r="Q282" s="8"/>
+      <c r="R282" s="9"/>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A283" s="41"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="29"/>
+      <c r="D283" s="29"/>
+      <c r="E283" s="29"/>
+      <c r="F283" s="30"/>
+      <c r="G283" s="20"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="20"/>
+      <c r="J283" s="20"/>
+      <c r="K283" s="20"/>
+      <c r="L283" s="20"/>
+      <c r="M283" s="20"/>
+      <c r="N283" s="20"/>
+      <c r="O283" s="20"/>
+      <c r="P283" s="20"/>
+      <c r="Q283" s="21"/>
+      <c r="R283" s="22"/>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A284" s="41"/>
-      <c r="B284" s="20"/>
-      <c r="C284" s="29"/>
-      <c r="D284" s="29"/>
-      <c r="E284" s="29"/>
-      <c r="F284" s="30"/>
-      <c r="G284" s="20"/>
-      <c r="H284" s="20"/>
-      <c r="I284" s="20"/>
-      <c r="J284" s="20"/>
-      <c r="K284" s="20"/>
-      <c r="L284" s="20"/>
-      <c r="M284" s="20"/>
-      <c r="N284" s="20"/>
-      <c r="O284" s="20"/>
-      <c r="P284" s="20"/>
-      <c r="Q284" s="21"/>
-      <c r="R284" s="22"/>
-      <c r="S284"/>
-      <c r="T284"/>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B284" s="31"/>
+      <c r="C284" s="32"/>
+      <c r="D284" s="32"/>
+      <c r="E284" s="32"/>
+      <c r="F284" s="33"/>
+      <c r="G284" s="31"/>
+      <c r="H284" s="31"/>
+      <c r="I284" s="31"/>
+      <c r="J284" s="31"/>
+      <c r="K284" s="31"/>
+      <c r="L284" s="31"/>
+      <c r="M284" s="31"/>
+      <c r="N284" s="31"/>
+      <c r="O284" s="31"/>
+      <c r="P284" s="31"/>
+      <c r="Q284" s="34"/>
+      <c r="R284" s="35"/>
+    </row>
+    <row r="285" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A285" s="41"/>
-      <c r="B285" s="20"/>
-      <c r="C285" s="29"/>
-      <c r="D285" s="29"/>
-      <c r="E285" s="29"/>
-      <c r="F285" s="30"/>
-      <c r="G285" s="20"/>
-      <c r="H285" s="20"/>
-      <c r="I285" s="20"/>
-      <c r="J285" s="20"/>
-      <c r="K285" s="20"/>
-      <c r="L285" s="20"/>
-      <c r="M285" s="20"/>
-      <c r="N285" s="20"/>
-      <c r="O285" s="20"/>
-      <c r="P285" s="20"/>
-      <c r="Q285" s="21"/>
-      <c r="R285" s="22"/>
-      <c r="S285"/>
-      <c r="T285"/>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A286" s="41"/>
-      <c r="B286" s="20"/>
-      <c r="C286" s="29"/>
-      <c r="D286" s="29"/>
-      <c r="E286" s="29"/>
-      <c r="F286" s="30"/>
-      <c r="G286" s="20"/>
-      <c r="H286" s="20"/>
-      <c r="I286" s="20"/>
-      <c r="J286" s="20"/>
-      <c r="K286" s="20"/>
-      <c r="L286" s="20"/>
-      <c r="M286" s="20"/>
-      <c r="N286" s="20"/>
-      <c r="O286" s="20"/>
-      <c r="P286" s="20"/>
-      <c r="Q286" s="21"/>
-      <c r="R286" s="22"/>
-      <c r="S286"/>
-      <c r="T286"/>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B285" s="10"/>
+      <c r="C285" s="25"/>
+      <c r="D285" s="25"/>
+      <c r="E285" s="25"/>
+      <c r="F285" s="26"/>
+      <c r="G285" s="10"/>
+      <c r="H285" s="10"/>
+      <c r="I285" s="10"/>
+      <c r="J285" s="10"/>
+      <c r="K285" s="10"/>
+      <c r="L285" s="10"/>
+      <c r="M285" s="10"/>
+      <c r="N285" s="10"/>
+      <c r="O285" s="10"/>
+      <c r="P285" s="10"/>
+      <c r="Q285" s="11"/>
+      <c r="R285" s="12"/>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A286" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B286" s="7"/>
+      <c r="C286" s="23"/>
+      <c r="D286" s="23"/>
+      <c r="E286" s="23"/>
+      <c r="F286" s="24"/>
+      <c r="G286" s="7"/>
+      <c r="H286" s="7"/>
+      <c r="I286" s="7"/>
+      <c r="J286" s="7"/>
+      <c r="K286" s="7"/>
+      <c r="L286" s="7"/>
+      <c r="M286" s="7"/>
+      <c r="N286" s="7"/>
+      <c r="O286" s="7"/>
+      <c r="P286" s="7"/>
+      <c r="Q286" s="8"/>
+      <c r="R286" s="9"/>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A287" s="41"/>
       <c r="B287" s="20"/>
       <c r="C287" s="29"/>
@@ -7330,56 +6802,48 @@
       <c r="P287" s="20"/>
       <c r="Q287" s="21"/>
       <c r="R287" s="22"/>
-      <c r="S287"/>
-      <c r="T287"/>
-    </row>
-    <row r="288" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A288" s="41"/>
-      <c r="B288" s="10"/>
-      <c r="C288" s="25"/>
-      <c r="D288" s="25"/>
-      <c r="E288" s="25"/>
-      <c r="F288" s="26"/>
-      <c r="G288" s="10"/>
-      <c r="H288" s="10"/>
-      <c r="I288" s="10"/>
-      <c r="J288" s="10"/>
-      <c r="K288" s="10"/>
-      <c r="L288" s="10"/>
-      <c r="M288" s="10"/>
-      <c r="N288" s="10"/>
-      <c r="O288" s="10"/>
-      <c r="P288" s="10"/>
-      <c r="Q288" s="11"/>
-      <c r="R288" s="12"/>
-      <c r="S288"/>
-      <c r="T288"/>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A289" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B289" s="7"/>
-      <c r="C289" s="23"/>
-      <c r="D289" s="23"/>
-      <c r="E289" s="23"/>
-      <c r="F289" s="24"/>
-      <c r="G289" s="7"/>
-      <c r="H289" s="7"/>
-      <c r="I289" s="7"/>
-      <c r="J289" s="7"/>
-      <c r="K289" s="7"/>
-      <c r="L289" s="7"/>
-      <c r="M289" s="7"/>
-      <c r="N289" s="7"/>
-      <c r="O289" s="7"/>
-      <c r="P289" s="7"/>
-      <c r="Q289" s="8"/>
-      <c r="R289" s="9"/>
-      <c r="S289"/>
-      <c r="T289"/>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B288" s="20"/>
+      <c r="C288" s="29"/>
+      <c r="D288" s="29"/>
+      <c r="E288" s="29"/>
+      <c r="F288" s="30"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="20"/>
+      <c r="I288" s="20"/>
+      <c r="J288" s="20"/>
+      <c r="K288" s="20"/>
+      <c r="L288" s="20"/>
+      <c r="M288" s="20"/>
+      <c r="N288" s="20"/>
+      <c r="O288" s="20"/>
+      <c r="P288" s="20"/>
+      <c r="Q288" s="21"/>
+      <c r="R288" s="22"/>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A289" s="41"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="29"/>
+      <c r="D289" s="29"/>
+      <c r="E289" s="29"/>
+      <c r="F289" s="30"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="20"/>
+      <c r="I289" s="20"/>
+      <c r="J289" s="20"/>
+      <c r="K289" s="20"/>
+      <c r="L289" s="20"/>
+      <c r="M289" s="20"/>
+      <c r="N289" s="20"/>
+      <c r="O289" s="20"/>
+      <c r="P289" s="20"/>
+      <c r="Q289" s="21"/>
+      <c r="R289" s="22"/>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A290" s="41"/>
       <c r="B290" s="20"/>
       <c r="C290" s="29"/>
@@ -7398,10 +6862,8 @@
       <c r="P290" s="20"/>
       <c r="Q290" s="21"/>
       <c r="R290" s="22"/>
-      <c r="S290"/>
-      <c r="T290"/>
-    </row>
-    <row r="291" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A291" s="41"/>
       <c r="B291" s="10"/>
       <c r="C291" s="25"/>
@@ -7420,58 +6882,50 @@
       <c r="P291" s="10"/>
       <c r="Q291" s="11"/>
       <c r="R291" s="12"/>
-      <c r="S291"/>
-      <c r="T291"/>
-    </row>
-    <row r="292" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="19" t="s">
-        <v>51</v>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A292" s="42" t="s">
+        <v>56</v>
       </c>
-      <c r="B292" s="13"/>
-      <c r="C292" s="27"/>
-      <c r="D292" s="27"/>
-      <c r="E292" s="27"/>
-      <c r="F292" s="28"/>
-      <c r="G292" s="13"/>
-      <c r="H292" s="13"/>
-      <c r="I292" s="13"/>
-      <c r="J292" s="13"/>
-      <c r="K292" s="13"/>
-      <c r="L292" s="13"/>
-      <c r="M292" s="13"/>
-      <c r="N292" s="13"/>
-      <c r="O292" s="13"/>
-      <c r="P292" s="13"/>
-      <c r="Q292" s="14"/>
-      <c r="R292" s="15"/>
-      <c r="S292"/>
-      <c r="T292"/>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A293" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B293" s="7"/>
-      <c r="C293" s="23"/>
-      <c r="D293" s="23"/>
-      <c r="E293" s="23"/>
-      <c r="F293" s="24"/>
-      <c r="G293" s="7"/>
-      <c r="H293" s="7"/>
-      <c r="I293" s="7"/>
-      <c r="J293" s="7"/>
-      <c r="K293" s="7"/>
-      <c r="L293" s="7"/>
-      <c r="M293" s="7"/>
-      <c r="N293" s="7"/>
-      <c r="O293" s="7"/>
-      <c r="P293" s="7"/>
-      <c r="Q293" s="8"/>
-      <c r="R293" s="9"/>
-      <c r="S293"/>
-      <c r="T293"/>
-    </row>
-    <row r="294" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="7"/>
+      <c r="C292" s="23"/>
+      <c r="D292" s="23"/>
+      <c r="E292" s="23"/>
+      <c r="F292" s="24"/>
+      <c r="G292" s="7"/>
+      <c r="H292" s="7"/>
+      <c r="I292" s="7"/>
+      <c r="J292" s="7"/>
+      <c r="K292" s="7"/>
+      <c r="L292" s="7"/>
+      <c r="M292" s="7"/>
+      <c r="N292" s="7"/>
+      <c r="O292" s="7"/>
+      <c r="P292" s="7"/>
+      <c r="Q292" s="8"/>
+      <c r="R292" s="9"/>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A293" s="41"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="29"/>
+      <c r="D293" s="29"/>
+      <c r="E293" s="29"/>
+      <c r="F293" s="30"/>
+      <c r="G293" s="20"/>
+      <c r="H293" s="20"/>
+      <c r="I293" s="20"/>
+      <c r="J293" s="20"/>
+      <c r="K293" s="20"/>
+      <c r="L293" s="20"/>
+      <c r="M293" s="20"/>
+      <c r="N293" s="20"/>
+      <c r="O293" s="20"/>
+      <c r="P293" s="20"/>
+      <c r="Q293" s="21"/>
+      <c r="R293" s="22"/>
+    </row>
+    <row r="294" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A294" s="41"/>
       <c r="B294" s="10"/>
       <c r="C294" s="25"/>
@@ -7490,100 +6944,94 @@
       <c r="P294" s="10"/>
       <c r="Q294" s="11"/>
       <c r="R294" s="12"/>
-      <c r="S294"/>
-      <c r="T294"/>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A295" s="40" t="s">
-        <v>53</v>
+    </row>
+    <row r="295" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="19" t="s">
+        <v>57</v>
       </c>
-      <c r="B295" s="7"/>
-      <c r="C295" s="23"/>
-      <c r="D295" s="23"/>
-      <c r="E295" s="23"/>
-      <c r="F295" s="24"/>
-      <c r="G295" s="7"/>
-      <c r="H295" s="7"/>
-      <c r="I295" s="7"/>
-      <c r="J295" s="7"/>
-      <c r="K295" s="7"/>
-      <c r="L295" s="7"/>
-      <c r="M295" s="7"/>
-      <c r="N295" s="7"/>
-      <c r="O295" s="7"/>
-      <c r="P295" s="7"/>
-      <c r="Q295" s="8"/>
-      <c r="R295" s="9"/>
-      <c r="S295"/>
-      <c r="T295"/>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A296" s="41"/>
-      <c r="B296" s="20"/>
-      <c r="C296" s="29"/>
-      <c r="D296" s="29"/>
-      <c r="E296" s="29"/>
-      <c r="F296" s="30"/>
-      <c r="G296" s="20"/>
-      <c r="H296" s="20"/>
-      <c r="I296" s="20"/>
-      <c r="J296" s="20"/>
-      <c r="K296" s="20"/>
-      <c r="L296" s="20"/>
-      <c r="M296" s="20"/>
-      <c r="N296" s="20"/>
-      <c r="O296" s="20"/>
-      <c r="P296" s="20"/>
-      <c r="Q296" s="21"/>
-      <c r="R296" s="22"/>
-      <c r="S296"/>
-      <c r="T296"/>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B295" s="13"/>
+      <c r="C295" s="27"/>
+      <c r="D295" s="27"/>
+      <c r="E295" s="27"/>
+      <c r="F295" s="28"/>
+      <c r="G295" s="13"/>
+      <c r="H295" s="13"/>
+      <c r="I295" s="13"/>
+      <c r="J295" s="13"/>
+      <c r="K295" s="13"/>
+      <c r="L295" s="13"/>
+      <c r="M295" s="13"/>
+      <c r="N295" s="13"/>
+      <c r="O295" s="13"/>
+      <c r="P295" s="13"/>
+      <c r="Q295" s="14"/>
+      <c r="R295" s="15"/>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A296" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B296" s="7"/>
+      <c r="C296" s="23"/>
+      <c r="D296" s="23"/>
+      <c r="E296" s="23"/>
+      <c r="F296" s="24"/>
+      <c r="G296" s="7"/>
+      <c r="H296" s="7"/>
+      <c r="I296" s="7"/>
+      <c r="J296" s="7"/>
+      <c r="K296" s="7"/>
+      <c r="L296" s="7"/>
+      <c r="M296" s="7"/>
+      <c r="N296" s="7"/>
+      <c r="O296" s="7"/>
+      <c r="P296" s="7"/>
+      <c r="Q296" s="8"/>
+      <c r="R296" s="9"/>
+    </row>
+    <row r="297" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A297" s="41"/>
-      <c r="B297" s="20"/>
-      <c r="C297" s="29"/>
-      <c r="D297" s="29"/>
-      <c r="E297" s="29"/>
-      <c r="F297" s="30"/>
-      <c r="G297" s="20"/>
-      <c r="H297" s="20"/>
-      <c r="I297" s="20"/>
-      <c r="J297" s="20"/>
-      <c r="K297" s="20"/>
-      <c r="L297" s="20"/>
-      <c r="M297" s="20"/>
-      <c r="N297" s="20"/>
-      <c r="O297" s="20"/>
-      <c r="P297" s="20"/>
-      <c r="Q297" s="21"/>
-      <c r="R297" s="22"/>
-      <c r="S297"/>
-      <c r="T297"/>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A298" s="41"/>
-      <c r="B298" s="20"/>
-      <c r="C298" s="29"/>
-      <c r="D298" s="29"/>
-      <c r="E298" s="29"/>
-      <c r="F298" s="30"/>
-      <c r="G298" s="20"/>
-      <c r="H298" s="20"/>
-      <c r="I298" s="20"/>
-      <c r="J298" s="20"/>
-      <c r="K298" s="20"/>
-      <c r="L298" s="20"/>
-      <c r="M298" s="20"/>
-      <c r="N298" s="20"/>
-      <c r="O298" s="20"/>
-      <c r="P298" s="20"/>
-      <c r="Q298" s="21"/>
-      <c r="R298" s="22"/>
-      <c r="S298"/>
-      <c r="T298"/>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B297" s="10"/>
+      <c r="C297" s="25"/>
+      <c r="D297" s="25"/>
+      <c r="E297" s="25"/>
+      <c r="F297" s="26"/>
+      <c r="G297" s="10"/>
+      <c r="H297" s="10"/>
+      <c r="I297" s="10"/>
+      <c r="J297" s="10"/>
+      <c r="K297" s="10"/>
+      <c r="L297" s="10"/>
+      <c r="M297" s="10"/>
+      <c r="N297" s="10"/>
+      <c r="O297" s="10"/>
+      <c r="P297" s="10"/>
+      <c r="Q297" s="11"/>
+      <c r="R297" s="12"/>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A298" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B298" s="7"/>
+      <c r="C298" s="23"/>
+      <c r="D298" s="23"/>
+      <c r="E298" s="23"/>
+      <c r="F298" s="24"/>
+      <c r="G298" s="7"/>
+      <c r="H298" s="7"/>
+      <c r="I298" s="7"/>
+      <c r="J298" s="7"/>
+      <c r="K298" s="7"/>
+      <c r="L298" s="7"/>
+      <c r="M298" s="7"/>
+      <c r="N298" s="7"/>
+      <c r="O298" s="7"/>
+      <c r="P298" s="7"/>
+      <c r="Q298" s="8"/>
+      <c r="R298" s="9"/>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A299" s="41"/>
       <c r="B299" s="20"/>
       <c r="C299" s="29"/>
@@ -7602,10 +7050,8 @@
       <c r="P299" s="20"/>
       <c r="Q299" s="21"/>
       <c r="R299" s="22"/>
-      <c r="S299"/>
-      <c r="T299"/>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A300" s="41"/>
       <c r="B300" s="20"/>
       <c r="C300" s="29"/>
@@ -7624,10 +7070,8 @@
       <c r="P300" s="20"/>
       <c r="Q300" s="21"/>
       <c r="R300" s="22"/>
-      <c r="S300"/>
-      <c r="T300"/>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A301" s="41"/>
       <c r="B301" s="20"/>
       <c r="C301" s="29"/>
@@ -7646,10 +7090,8 @@
       <c r="P301" s="20"/>
       <c r="Q301" s="21"/>
       <c r="R301" s="22"/>
-      <c r="S301"/>
-      <c r="T301"/>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A302" s="41"/>
       <c r="B302" s="20"/>
       <c r="C302" s="29"/>
@@ -7668,10 +7110,8 @@
       <c r="P302" s="20"/>
       <c r="Q302" s="21"/>
       <c r="R302" s="22"/>
-      <c r="S302"/>
-      <c r="T302"/>
-    </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A303" s="41"/>
       <c r="B303" s="20"/>
       <c r="C303" s="29"/>
@@ -7690,56 +7130,48 @@
       <c r="P303" s="20"/>
       <c r="Q303" s="21"/>
       <c r="R303" s="22"/>
-      <c r="S303"/>
-      <c r="T303"/>
-    </row>
-    <row r="304" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A304" s="41"/>
-      <c r="B304" s="10"/>
-      <c r="C304" s="25"/>
-      <c r="D304" s="25"/>
-      <c r="E304" s="25"/>
-      <c r="F304" s="26"/>
-      <c r="G304" s="10"/>
-      <c r="H304" s="10"/>
-      <c r="I304" s="10"/>
-      <c r="J304" s="10"/>
-      <c r="K304" s="10"/>
-      <c r="L304" s="10"/>
-      <c r="M304" s="10"/>
-      <c r="N304" s="10"/>
-      <c r="O304" s="10"/>
-      <c r="P304" s="10"/>
-      <c r="Q304" s="11"/>
-      <c r="R304" s="12"/>
-      <c r="S304"/>
-      <c r="T304"/>
-    </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A305" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B305" s="7"/>
-      <c r="C305" s="23"/>
-      <c r="D305" s="23"/>
-      <c r="E305" s="23"/>
-      <c r="F305" s="24"/>
-      <c r="G305" s="7"/>
-      <c r="H305" s="7"/>
-      <c r="I305" s="7"/>
-      <c r="J305" s="7"/>
-      <c r="K305" s="7"/>
-      <c r="L305" s="7"/>
-      <c r="M305" s="7"/>
-      <c r="N305" s="7"/>
-      <c r="O305" s="7"/>
-      <c r="P305" s="7"/>
-      <c r="Q305" s="8"/>
-      <c r="R305" s="9"/>
-      <c r="S305"/>
-      <c r="T305"/>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B304" s="20"/>
+      <c r="C304" s="29"/>
+      <c r="D304" s="29"/>
+      <c r="E304" s="29"/>
+      <c r="F304" s="30"/>
+      <c r="G304" s="20"/>
+      <c r="H304" s="20"/>
+      <c r="I304" s="20"/>
+      <c r="J304" s="20"/>
+      <c r="K304" s="20"/>
+      <c r="L304" s="20"/>
+      <c r="M304" s="20"/>
+      <c r="N304" s="20"/>
+      <c r="O304" s="20"/>
+      <c r="P304" s="20"/>
+      <c r="Q304" s="21"/>
+      <c r="R304" s="22"/>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A305" s="41"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="29"/>
+      <c r="D305" s="29"/>
+      <c r="E305" s="29"/>
+      <c r="F305" s="30"/>
+      <c r="G305" s="20"/>
+      <c r="H305" s="20"/>
+      <c r="I305" s="20"/>
+      <c r="J305" s="20"/>
+      <c r="K305" s="20"/>
+      <c r="L305" s="20"/>
+      <c r="M305" s="20"/>
+      <c r="N305" s="20"/>
+      <c r="O305" s="20"/>
+      <c r="P305" s="20"/>
+      <c r="Q305" s="21"/>
+      <c r="R305" s="22"/>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A306" s="41"/>
       <c r="B306" s="20"/>
       <c r="C306" s="29"/>
@@ -7758,99 +7190,91 @@
       <c r="P306" s="20"/>
       <c r="Q306" s="21"/>
       <c r="R306" s="22"/>
-      <c r="S306"/>
-      <c r="T306"/>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="307" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A307" s="41"/>
-      <c r="B307" s="20"/>
-      <c r="C307" s="29"/>
-      <c r="D307" s="29"/>
-      <c r="E307" s="29"/>
-      <c r="F307" s="30"/>
-      <c r="G307" s="20"/>
-      <c r="H307" s="20"/>
-      <c r="I307" s="20"/>
-      <c r="J307" s="20"/>
-      <c r="K307" s="20"/>
-      <c r="L307" s="20"/>
-      <c r="M307" s="20"/>
-      <c r="N307" s="20"/>
-      <c r="O307" s="20"/>
-      <c r="P307" s="20"/>
-      <c r="Q307" s="21"/>
-      <c r="R307" s="22"/>
-      <c r="S307"/>
-      <c r="T307"/>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A308" s="41"/>
-      <c r="B308" s="20"/>
-      <c r="C308" s="29"/>
-      <c r="D308" s="29"/>
-      <c r="E308" s="29"/>
-      <c r="F308" s="30"/>
-      <c r="G308" s="20"/>
-      <c r="H308" s="20"/>
-      <c r="I308" s="20"/>
-      <c r="J308" s="20"/>
-      <c r="K308" s="20"/>
-      <c r="L308" s="20"/>
-      <c r="M308" s="20"/>
-      <c r="N308" s="20"/>
-      <c r="O308" s="20"/>
-      <c r="P308" s="20"/>
-      <c r="Q308" s="21"/>
-      <c r="R308" s="22"/>
-      <c r="S308"/>
-      <c r="T308"/>
-    </row>
-    <row r="309" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B307" s="10"/>
+      <c r="C307" s="25"/>
+      <c r="D307" s="25"/>
+      <c r="E307" s="25"/>
+      <c r="F307" s="26"/>
+      <c r="G307" s="10"/>
+      <c r="H307" s="10"/>
+      <c r="I307" s="10"/>
+      <c r="J307" s="10"/>
+      <c r="K307" s="10"/>
+      <c r="L307" s="10"/>
+      <c r="M307" s="10"/>
+      <c r="N307" s="10"/>
+      <c r="O307" s="10"/>
+      <c r="P307" s="10"/>
+      <c r="Q307" s="11"/>
+      <c r="R307" s="12"/>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A308" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B308" s="7"/>
+      <c r="C308" s="23"/>
+      <c r="D308" s="23"/>
+      <c r="E308" s="23"/>
+      <c r="F308" s="24"/>
+      <c r="G308" s="7"/>
+      <c r="H308" s="7"/>
+      <c r="I308" s="7"/>
+      <c r="J308" s="7"/>
+      <c r="K308" s="7"/>
+      <c r="L308" s="7"/>
+      <c r="M308" s="7"/>
+      <c r="N308" s="7"/>
+      <c r="O308" s="7"/>
+      <c r="P308" s="7"/>
+      <c r="Q308" s="8"/>
+      <c r="R308" s="9"/>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A309" s="41"/>
-      <c r="B309" s="10"/>
-      <c r="C309" s="25"/>
-      <c r="D309" s="25"/>
-      <c r="E309" s="25"/>
-      <c r="F309" s="26"/>
-      <c r="G309" s="10"/>
-      <c r="H309" s="10"/>
-      <c r="I309" s="10"/>
-      <c r="J309" s="10"/>
-      <c r="K309" s="10"/>
-      <c r="L309" s="10"/>
-      <c r="M309" s="10"/>
-      <c r="N309" s="10"/>
-      <c r="O309" s="10"/>
-      <c r="P309" s="10"/>
-      <c r="Q309" s="11"/>
-      <c r="R309" s="12"/>
-      <c r="S309"/>
-      <c r="T309"/>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A310" s="16"/>
-      <c r="B310" s="7"/>
-      <c r="C310" s="23"/>
-      <c r="D310" s="23"/>
-      <c r="E310" s="23"/>
-      <c r="F310" s="24"/>
-      <c r="G310" s="7"/>
-      <c r="H310" s="7"/>
-      <c r="I310" s="7"/>
-      <c r="J310" s="7"/>
-      <c r="K310" s="7"/>
-      <c r="L310" s="7"/>
-      <c r="M310" s="7"/>
-      <c r="N310" s="7"/>
-      <c r="O310" s="7"/>
-      <c r="P310" s="7"/>
-      <c r="Q310" s="8"/>
-      <c r="R310" s="9"/>
-      <c r="S310"/>
-      <c r="T310"/>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A311" s="17"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="29"/>
+      <c r="D309" s="29"/>
+      <c r="E309" s="29"/>
+      <c r="F309" s="30"/>
+      <c r="G309" s="20"/>
+      <c r="H309" s="20"/>
+      <c r="I309" s="20"/>
+      <c r="J309" s="20"/>
+      <c r="K309" s="20"/>
+      <c r="L309" s="20"/>
+      <c r="M309" s="20"/>
+      <c r="N309" s="20"/>
+      <c r="O309" s="20"/>
+      <c r="P309" s="20"/>
+      <c r="Q309" s="21"/>
+      <c r="R309" s="22"/>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A310" s="41"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="29"/>
+      <c r="D310" s="29"/>
+      <c r="E310" s="29"/>
+      <c r="F310" s="30"/>
+      <c r="G310" s="20"/>
+      <c r="H310" s="20"/>
+      <c r="I310" s="20"/>
+      <c r="J310" s="20"/>
+      <c r="K310" s="20"/>
+      <c r="L310" s="20"/>
+      <c r="M310" s="20"/>
+      <c r="N310" s="20"/>
+      <c r="O310" s="20"/>
+      <c r="P310" s="20"/>
+      <c r="Q310" s="21"/>
+      <c r="R310" s="22"/>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A311" s="41"/>
       <c r="B311" s="20"/>
       <c r="C311" s="29"/>
       <c r="D311" s="29"/>
@@ -7868,54 +7292,48 @@
       <c r="P311" s="20"/>
       <c r="Q311" s="21"/>
       <c r="R311" s="22"/>
-      <c r="S311"/>
-      <c r="T311"/>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A312" s="17"/>
-      <c r="B312" s="20"/>
-      <c r="C312" s="29"/>
-      <c r="D312" s="29"/>
-      <c r="E312" s="29"/>
-      <c r="F312" s="30"/>
-      <c r="G312" s="20"/>
-      <c r="H312" s="20"/>
-      <c r="I312" s="20"/>
-      <c r="J312" s="20"/>
-      <c r="K312" s="20"/>
-      <c r="L312" s="20"/>
-      <c r="M312" s="20"/>
-      <c r="N312" s="20"/>
-      <c r="O312" s="20"/>
-      <c r="P312" s="20"/>
-      <c r="Q312" s="21"/>
-      <c r="R312" s="22"/>
-      <c r="S312"/>
-      <c r="T312"/>
-    </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A313" s="17"/>
-      <c r="B313" s="20"/>
-      <c r="C313" s="29"/>
-      <c r="D313" s="29"/>
-      <c r="E313" s="29"/>
-      <c r="F313" s="30"/>
-      <c r="G313" s="20"/>
-      <c r="H313" s="20"/>
-      <c r="I313" s="20"/>
-      <c r="J313" s="20"/>
-      <c r="K313" s="20"/>
-      <c r="L313" s="20"/>
-      <c r="M313" s="20"/>
-      <c r="N313" s="20"/>
-      <c r="O313" s="20"/>
-      <c r="P313" s="20"/>
-      <c r="Q313" s="21"/>
-      <c r="R313" s="22"/>
-      <c r="S313"/>
-      <c r="T313"/>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="312" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="41"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="25"/>
+      <c r="D312" s="25"/>
+      <c r="E312" s="25"/>
+      <c r="F312" s="26"/>
+      <c r="G312" s="10"/>
+      <c r="H312" s="10"/>
+      <c r="I312" s="10"/>
+      <c r="J312" s="10"/>
+      <c r="K312" s="10"/>
+      <c r="L312" s="10"/>
+      <c r="M312" s="10"/>
+      <c r="N312" s="10"/>
+      <c r="O312" s="10"/>
+      <c r="P312" s="10"/>
+      <c r="Q312" s="11"/>
+      <c r="R312" s="12"/>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A313" s="16"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="23"/>
+      <c r="D313" s="23"/>
+      <c r="E313" s="23"/>
+      <c r="F313" s="24"/>
+      <c r="G313" s="7"/>
+      <c r="H313" s="7"/>
+      <c r="I313" s="7"/>
+      <c r="J313" s="7"/>
+      <c r="K313" s="7"/>
+      <c r="L313" s="7"/>
+      <c r="M313" s="7"/>
+      <c r="N313" s="7"/>
+      <c r="O313" s="7"/>
+      <c r="P313" s="7"/>
+      <c r="Q313" s="8"/>
+      <c r="R313" s="9"/>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A314" s="17"/>
       <c r="B314" s="20"/>
       <c r="C314" s="29"/>
@@ -7934,10 +7352,8 @@
       <c r="P314" s="20"/>
       <c r="Q314" s="21"/>
       <c r="R314" s="22"/>
-      <c r="S314"/>
-      <c r="T314"/>
-    </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A315" s="17"/>
       <c r="B315" s="20"/>
       <c r="C315" s="29"/>
@@ -7956,10 +7372,8 @@
       <c r="P315" s="20"/>
       <c r="Q315" s="21"/>
       <c r="R315" s="22"/>
-      <c r="S315"/>
-      <c r="T315"/>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A316" s="17"/>
       <c r="B316" s="20"/>
       <c r="C316" s="29"/>
@@ -7978,10 +7392,8 @@
       <c r="P316" s="20"/>
       <c r="Q316" s="21"/>
       <c r="R316" s="22"/>
-      <c r="S316"/>
-      <c r="T316"/>
-    </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A317" s="17"/>
       <c r="B317" s="20"/>
       <c r="C317" s="29"/>
@@ -8000,10 +7412,8 @@
       <c r="P317" s="20"/>
       <c r="Q317" s="21"/>
       <c r="R317" s="22"/>
-      <c r="S317"/>
-      <c r="T317"/>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A318" s="17"/>
       <c r="B318" s="20"/>
       <c r="C318" s="29"/>
@@ -8022,13 +7432,9 @@
       <c r="P318" s="20"/>
       <c r="Q318" s="21"/>
       <c r="R318" s="22"/>
-      <c r="S318"/>
-      <c r="T318"/>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A319" s="17" t="s">
-        <v>55</v>
-      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A319" s="17"/>
       <c r="B319" s="20"/>
       <c r="C319" s="29"/>
       <c r="D319" s="29"/>
@@ -8046,10 +7452,8 @@
       <c r="P319" s="20"/>
       <c r="Q319" s="21"/>
       <c r="R319" s="22"/>
-      <c r="S319"/>
-      <c r="T319"/>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A320" s="17"/>
       <c r="B320" s="20"/>
       <c r="C320" s="29"/>
@@ -8068,10 +7472,8 @@
       <c r="P320" s="20"/>
       <c r="Q320" s="21"/>
       <c r="R320" s="22"/>
-      <c r="S320"/>
-      <c r="T320"/>
-    </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A321" s="17"/>
       <c r="B321" s="20"/>
       <c r="C321" s="29"/>
@@ -8090,11 +7492,11 @@
       <c r="P321" s="20"/>
       <c r="Q321" s="21"/>
       <c r="R321" s="22"/>
-      <c r="S321"/>
-      <c r="T321"/>
-    </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A322" s="17"/>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A322" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="B322" s="20"/>
       <c r="C322" s="29"/>
       <c r="D322" s="29"/>
@@ -8112,10 +7514,8 @@
       <c r="P322" s="20"/>
       <c r="Q322" s="21"/>
       <c r="R322" s="22"/>
-      <c r="S322"/>
-      <c r="T322"/>
-    </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A323" s="17"/>
       <c r="B323" s="20"/>
       <c r="C323" s="29"/>
@@ -8134,10 +7534,8 @@
       <c r="P323" s="20"/>
       <c r="Q323" s="21"/>
       <c r="R323" s="22"/>
-      <c r="S323"/>
-      <c r="T323"/>
-    </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A324" s="17"/>
       <c r="B324" s="20"/>
       <c r="C324" s="29"/>
@@ -8156,10 +7554,8 @@
       <c r="P324" s="20"/>
       <c r="Q324" s="21"/>
       <c r="R324" s="22"/>
-      <c r="S324"/>
-      <c r="T324"/>
-    </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="325" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A325" s="17"/>
       <c r="B325" s="20"/>
       <c r="C325" s="29"/>
@@ -8178,10 +7574,8 @@
       <c r="P325" s="20"/>
       <c r="Q325" s="21"/>
       <c r="R325" s="22"/>
-      <c r="S325"/>
-      <c r="T325"/>
-    </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A326" s="17"/>
       <c r="B326" s="20"/>
       <c r="C326" s="29"/>
@@ -8200,10 +7594,8 @@
       <c r="P326" s="20"/>
       <c r="Q326" s="21"/>
       <c r="R326" s="22"/>
-      <c r="S326"/>
-      <c r="T326"/>
-    </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A327" s="17"/>
       <c r="B327" s="20"/>
       <c r="C327" s="29"/>
@@ -8222,10 +7614,8 @@
       <c r="P327" s="20"/>
       <c r="Q327" s="21"/>
       <c r="R327" s="22"/>
-      <c r="S327"/>
-      <c r="T327"/>
-    </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A328" s="17"/>
       <c r="B328" s="20"/>
       <c r="C328" s="29"/>
@@ -8244,10 +7634,8 @@
       <c r="P328" s="20"/>
       <c r="Q328" s="21"/>
       <c r="R328" s="22"/>
-      <c r="S328"/>
-      <c r="T328"/>
-    </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A329" s="17"/>
       <c r="B329" s="20"/>
       <c r="C329" s="29"/>
@@ -8266,10 +7654,8 @@
       <c r="P329" s="20"/>
       <c r="Q329" s="21"/>
       <c r="R329" s="22"/>
-      <c r="S329"/>
-      <c r="T329"/>
-    </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A330" s="17"/>
       <c r="B330" s="20"/>
       <c r="C330" s="29"/>
@@ -8288,10 +7674,8 @@
       <c r="P330" s="20"/>
       <c r="Q330" s="21"/>
       <c r="R330" s="22"/>
-      <c r="S330"/>
-      <c r="T330"/>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A331" s="17"/>
       <c r="B331" s="20"/>
       <c r="C331" s="29"/>
@@ -8310,10 +7694,8 @@
       <c r="P331" s="20"/>
       <c r="Q331" s="21"/>
       <c r="R331" s="22"/>
-      <c r="S331"/>
-      <c r="T331"/>
-    </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="332" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A332" s="17"/>
       <c r="B332" s="20"/>
       <c r="C332" s="29"/>
@@ -8332,10 +7714,8 @@
       <c r="P332" s="20"/>
       <c r="Q332" s="21"/>
       <c r="R332" s="22"/>
-      <c r="S332"/>
-      <c r="T332"/>
-    </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A333" s="17"/>
       <c r="B333" s="20"/>
       <c r="C333" s="29"/>
@@ -8354,10 +7734,8 @@
       <c r="P333" s="20"/>
       <c r="Q333" s="21"/>
       <c r="R333" s="22"/>
-      <c r="S333"/>
-      <c r="T333"/>
-    </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="334" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A334" s="17"/>
       <c r="B334" s="20"/>
       <c r="C334" s="29"/>
@@ -8376,10 +7754,8 @@
       <c r="P334" s="20"/>
       <c r="Q334" s="21"/>
       <c r="R334" s="22"/>
-      <c r="S334"/>
-      <c r="T334"/>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A335" s="17"/>
       <c r="B335" s="20"/>
       <c r="C335" s="29"/>
@@ -8398,10 +7774,8 @@
       <c r="P335" s="20"/>
       <c r="Q335" s="21"/>
       <c r="R335" s="22"/>
-      <c r="S335"/>
-      <c r="T335"/>
-    </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A336" s="17"/>
       <c r="B336" s="20"/>
       <c r="C336" s="29"/>
@@ -8420,10 +7794,8 @@
       <c r="P336" s="20"/>
       <c r="Q336" s="21"/>
       <c r="R336" s="22"/>
-      <c r="S336"/>
-      <c r="T336"/>
-    </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A337" s="17"/>
       <c r="B337" s="20"/>
       <c r="C337" s="29"/>
@@ -8442,10 +7814,8 @@
       <c r="P337" s="20"/>
       <c r="Q337" s="21"/>
       <c r="R337" s="22"/>
-      <c r="S337"/>
-      <c r="T337"/>
-    </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A338" s="17"/>
       <c r="B338" s="20"/>
       <c r="C338" s="29"/>
@@ -8464,10 +7834,8 @@
       <c r="P338" s="20"/>
       <c r="Q338" s="21"/>
       <c r="R338" s="22"/>
-      <c r="S338"/>
-      <c r="T338"/>
-    </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A339" s="17"/>
       <c r="B339" s="20"/>
       <c r="C339" s="29"/>
@@ -8486,10 +7854,8 @@
       <c r="P339" s="20"/>
       <c r="Q339" s="21"/>
       <c r="R339" s="22"/>
-      <c r="S339"/>
-      <c r="T339"/>
-    </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A340" s="17"/>
       <c r="B340" s="20"/>
       <c r="C340" s="29"/>
@@ -8508,10 +7874,8 @@
       <c r="P340" s="20"/>
       <c r="Q340" s="21"/>
       <c r="R340" s="22"/>
-      <c r="S340"/>
-      <c r="T340"/>
-    </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A341" s="17"/>
       <c r="B341" s="20"/>
       <c r="C341" s="29"/>
@@ -8530,10 +7894,8 @@
       <c r="P341" s="20"/>
       <c r="Q341" s="21"/>
       <c r="R341" s="22"/>
-      <c r="S341"/>
-      <c r="T341"/>
-    </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A342" s="17"/>
       <c r="B342" s="20"/>
       <c r="C342" s="29"/>
@@ -8552,10 +7914,8 @@
       <c r="P342" s="20"/>
       <c r="Q342" s="21"/>
       <c r="R342" s="22"/>
-      <c r="S342"/>
-      <c r="T342"/>
-    </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A343" s="17"/>
       <c r="B343" s="20"/>
       <c r="C343" s="29"/>
@@ -8574,10 +7934,8 @@
       <c r="P343" s="20"/>
       <c r="Q343" s="21"/>
       <c r="R343" s="22"/>
-      <c r="S343"/>
-      <c r="T343"/>
-    </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A344" s="17"/>
       <c r="B344" s="20"/>
       <c r="C344" s="29"/>
@@ -8596,10 +7954,8 @@
       <c r="P344" s="20"/>
       <c r="Q344" s="21"/>
       <c r="R344" s="22"/>
-      <c r="S344"/>
-      <c r="T344"/>
-    </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A345" s="17"/>
       <c r="B345" s="20"/>
       <c r="C345" s="29"/>
@@ -8618,10 +7974,8 @@
       <c r="P345" s="20"/>
       <c r="Q345" s="21"/>
       <c r="R345" s="22"/>
-      <c r="S345"/>
-      <c r="T345"/>
-    </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="346" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A346" s="17"/>
       <c r="B346" s="20"/>
       <c r="C346" s="29"/>
@@ -8640,10 +7994,8 @@
       <c r="P346" s="20"/>
       <c r="Q346" s="21"/>
       <c r="R346" s="22"/>
-      <c r="S346"/>
-      <c r="T346"/>
-    </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A347" s="17"/>
       <c r="B347" s="20"/>
       <c r="C347" s="29"/>
@@ -8662,10 +8014,8 @@
       <c r="P347" s="20"/>
       <c r="Q347" s="21"/>
       <c r="R347" s="22"/>
-      <c r="S347"/>
-      <c r="T347"/>
-    </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="348" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A348" s="17"/>
       <c r="B348" s="20"/>
       <c r="C348" s="29"/>
@@ -8684,10 +8034,8 @@
       <c r="P348" s="20"/>
       <c r="Q348" s="21"/>
       <c r="R348" s="22"/>
-      <c r="S348"/>
-      <c r="T348"/>
-    </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A349" s="17"/>
       <c r="B349" s="20"/>
       <c r="C349" s="29"/>
@@ -8706,10 +8054,8 @@
       <c r="P349" s="20"/>
       <c r="Q349" s="21"/>
       <c r="R349" s="22"/>
-      <c r="S349"/>
-      <c r="T349"/>
-    </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A350" s="17"/>
       <c r="B350" s="20"/>
       <c r="C350" s="29"/>
@@ -8728,10 +8074,8 @@
       <c r="P350" s="20"/>
       <c r="Q350" s="21"/>
       <c r="R350" s="22"/>
-      <c r="S350"/>
-      <c r="T350"/>
-    </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A351" s="17"/>
       <c r="B351" s="20"/>
       <c r="C351" s="29"/>
@@ -8750,10 +8094,8 @@
       <c r="P351" s="20"/>
       <c r="Q351" s="21"/>
       <c r="R351" s="22"/>
-      <c r="S351"/>
-      <c r="T351"/>
-    </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A352" s="17"/>
       <c r="B352" s="20"/>
       <c r="C352" s="29"/>
@@ -8772,10 +8114,8 @@
       <c r="P352" s="20"/>
       <c r="Q352" s="21"/>
       <c r="R352" s="22"/>
-      <c r="S352"/>
-      <c r="T352"/>
-    </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="353" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A353" s="17"/>
       <c r="B353" s="20"/>
       <c r="C353" s="29"/>
@@ -8794,10 +8134,8 @@
       <c r="P353" s="20"/>
       <c r="Q353" s="21"/>
       <c r="R353" s="22"/>
-      <c r="S353"/>
-      <c r="T353"/>
-    </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="354" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A354" s="17"/>
       <c r="B354" s="20"/>
       <c r="C354" s="29"/>
@@ -8816,10 +8154,8 @@
       <c r="P354" s="20"/>
       <c r="Q354" s="21"/>
       <c r="R354" s="22"/>
-      <c r="S354"/>
-      <c r="T354"/>
-    </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="355" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A355" s="17"/>
       <c r="B355" s="20"/>
       <c r="C355" s="29"/>
@@ -8838,10 +8174,8 @@
       <c r="P355" s="20"/>
       <c r="Q355" s="21"/>
       <c r="R355" s="22"/>
-      <c r="S355"/>
-      <c r="T355"/>
-    </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="356" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A356" s="17"/>
       <c r="B356" s="20"/>
       <c r="C356" s="29"/>
@@ -8860,10 +8194,8 @@
       <c r="P356" s="20"/>
       <c r="Q356" s="21"/>
       <c r="R356" s="22"/>
-      <c r="S356"/>
-      <c r="T356"/>
-    </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="357" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A357" s="17"/>
       <c r="B357" s="20"/>
       <c r="C357" s="29"/>
@@ -8882,10 +8214,8 @@
       <c r="P357" s="20"/>
       <c r="Q357" s="21"/>
       <c r="R357" s="22"/>
-      <c r="S357"/>
-      <c r="T357"/>
-    </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A358" s="17"/>
       <c r="B358" s="20"/>
       <c r="C358" s="29"/>
@@ -8904,10 +8234,8 @@
       <c r="P358" s="20"/>
       <c r="Q358" s="21"/>
       <c r="R358" s="22"/>
-      <c r="S358"/>
-      <c r="T358"/>
-    </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="359" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A359" s="17"/>
       <c r="B359" s="20"/>
       <c r="C359" s="29"/>
@@ -8926,39 +8254,207 @@
       <c r="P359" s="20"/>
       <c r="Q359" s="21"/>
       <c r="R359" s="22"/>
-      <c r="S359"/>
-      <c r="T359"/>
-    </row>
-    <row r="360" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="18"/>
-      <c r="B360" s="10"/>
-      <c r="C360" s="25"/>
-      <c r="D360" s="25"/>
-      <c r="E360" s="25"/>
-      <c r="F360" s="26"/>
-      <c r="G360" s="10"/>
-      <c r="H360" s="10"/>
-      <c r="I360" s="10"/>
-      <c r="J360" s="10"/>
-      <c r="K360" s="10"/>
-      <c r="L360" s="10"/>
-      <c r="M360" s="10"/>
-      <c r="N360" s="10"/>
-      <c r="O360" s="10"/>
-      <c r="P360" s="10"/>
-      <c r="Q360" s="11"/>
-      <c r="R360" s="12"/>
-      <c r="S360"/>
-      <c r="T360"/>
+    </row>
+    <row r="360" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A360" s="17"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="29"/>
+      <c r="D360" s="29"/>
+      <c r="E360" s="29"/>
+      <c r="F360" s="30"/>
+      <c r="G360" s="20"/>
+      <c r="H360" s="20"/>
+      <c r="I360" s="20"/>
+      <c r="J360" s="20"/>
+      <c r="K360" s="20"/>
+      <c r="L360" s="20"/>
+      <c r="M360" s="20"/>
+      <c r="N360" s="20"/>
+      <c r="O360" s="20"/>
+      <c r="P360" s="20"/>
+      <c r="Q360" s="21"/>
+      <c r="R360" s="22"/>
+    </row>
+    <row r="361" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A361" s="17"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="29"/>
+      <c r="D361" s="29"/>
+      <c r="E361" s="29"/>
+      <c r="F361" s="30"/>
+      <c r="G361" s="20"/>
+      <c r="H361" s="20"/>
+      <c r="I361" s="20"/>
+      <c r="J361" s="20"/>
+      <c r="K361" s="20"/>
+      <c r="L361" s="20"/>
+      <c r="M361" s="20"/>
+      <c r="N361" s="20"/>
+      <c r="O361" s="20"/>
+      <c r="P361" s="20"/>
+      <c r="Q361" s="21"/>
+      <c r="R361" s="22"/>
+    </row>
+    <row r="362" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A362" s="17"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="29"/>
+      <c r="D362" s="29"/>
+      <c r="E362" s="29"/>
+      <c r="F362" s="30"/>
+      <c r="G362" s="20"/>
+      <c r="H362" s="20"/>
+      <c r="I362" s="20"/>
+      <c r="J362" s="20"/>
+      <c r="K362" s="20"/>
+      <c r="L362" s="20"/>
+      <c r="M362" s="20"/>
+      <c r="N362" s="20"/>
+      <c r="O362" s="20"/>
+      <c r="P362" s="20"/>
+      <c r="Q362" s="21"/>
+      <c r="R362" s="22"/>
+    </row>
+    <row r="363" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="18"/>
+      <c r="B363" s="10"/>
+      <c r="C363" s="25"/>
+      <c r="D363" s="25"/>
+      <c r="E363" s="25"/>
+      <c r="F363" s="26"/>
+      <c r="G363" s="10"/>
+      <c r="H363" s="10"/>
+      <c r="I363" s="10"/>
+      <c r="J363" s="10"/>
+      <c r="K363" s="10"/>
+      <c r="L363" s="10"/>
+      <c r="M363" s="10"/>
+      <c r="N363" s="10"/>
+      <c r="O363" s="10"/>
+      <c r="P363" s="10"/>
+      <c r="Q363" s="11"/>
+      <c r="R363" s="12"/>
+    </row>
+    <row r="364" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B364"/>
+      <c r="C364"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="F364"/>
+      <c r="G364"/>
+      <c r="H364"/>
+      <c r="I364"/>
+      <c r="J364"/>
+      <c r="K364"/>
+      <c r="L364"/>
+      <c r="M364"/>
+      <c r="N364"/>
+    </row>
+    <row r="365" spans="1:18" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B365" t="s">
+        <v>63</v>
+      </c>
+      <c r="C365">
+        <v>16</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <f t="shared" ref="E327:E390" si="0">C365-D365</f>
+        <v>16</v>
+      </c>
+      <c r="F365" t="s">
+        <v>61</v>
+      </c>
+      <c r="G365"/>
+      <c r="H365"/>
+      <c r="I365"/>
+      <c r="J365"/>
+      <c r="K365"/>
+      <c r="L365"/>
+      <c r="M365"/>
+      <c r="N365"/>
+    </row>
+    <row r="366" spans="1:18" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B366" t="s">
+        <v>64</v>
+      </c>
+      <c r="C366">
+        <v>2</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F366" t="s">
+        <v>61</v>
+      </c>
+      <c r="G366"/>
+      <c r="H366"/>
+      <c r="I366"/>
+      <c r="J366"/>
+      <c r="K366"/>
+      <c r="L366"/>
+      <c r="M366"/>
+      <c r="N366"/>
+    </row>
+    <row r="367" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B367" t="s">
+        <v>65</v>
+      </c>
+      <c r="C367">
+        <v>7</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F367" t="s">
+        <v>61</v>
+      </c>
+      <c r="G367"/>
+      <c r="H367"/>
+      <c r="I367"/>
+      <c r="J367"/>
+      <c r="K367"/>
+      <c r="L367"/>
+      <c r="M367"/>
+      <c r="N367"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A4:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A41:A48"/>
+  <mergeCells count="46">
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="A286:A291"/>
+    <mergeCell ref="A292:A294"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A298:A307"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A262:A264"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="A268:A270"/>
+    <mergeCell ref="A274:A277"/>
+    <mergeCell ref="A271:A273"/>
+    <mergeCell ref="A257:A259"/>
+    <mergeCell ref="A204:A213"/>
+    <mergeCell ref="A214:A223"/>
+    <mergeCell ref="A224:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A254:A256"/>
     <mergeCell ref="A194:A203"/>
     <mergeCell ref="A54:A64"/>
     <mergeCell ref="A65:A75"/>
@@ -8974,33 +8470,15 @@
     <mergeCell ref="A107:A115"/>
     <mergeCell ref="A116:A124"/>
     <mergeCell ref="A125:A133"/>
-    <mergeCell ref="A257:A259"/>
-    <mergeCell ref="A204:A213"/>
-    <mergeCell ref="A214:A223"/>
-    <mergeCell ref="A224:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="A254:A256"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="A262:A264"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="A268:A270"/>
-    <mergeCell ref="A271:A274"/>
-    <mergeCell ref="A305:A309"/>
-    <mergeCell ref="A275:A278"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="A283:A288"/>
-    <mergeCell ref="A289:A291"/>
-    <mergeCell ref="A293:A294"/>
-    <mergeCell ref="A295:A304"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A41:A48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="62" firstPageNumber="0" fitToHeight="4" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="62" firstPageNumber="0" fitToHeight="4" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>